--- a/受控文件/需求优先级/SRA2021-G04需求优先级1.1.0.xlsx
+++ b/受控文件/需求优先级/SRA2021-G04需求优先级1.1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\需求优先级\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\仓库\受控文件\需求优先级\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554C20D0-B4CA-409B-B587-3BEFC80392C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F42FF63-4285-4D31-9844-A980EC022EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2145" windowWidth="22215" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -613,6 +613,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -623,9 +626,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I124" sqref="I124"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -928,31 +928,31 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
       <c r="Q1" s="7" t="s">
         <v>114</v>
       </c>
@@ -1037,7 +1037,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <f>(B3+C3)*1.5</f>
+        <f t="shared" ref="D3:D34" si="0">(B3+C3)*1.5</f>
         <v>0</v>
       </c>
       <c r="E3" s="2">
@@ -1047,7 +1047,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="2">
-        <f>(E3+F3)*1.1</f>
+        <f t="shared" ref="G3:G34" si="1">(E3+F3)*1.1</f>
         <v>13.200000000000001</v>
       </c>
       <c r="H3" s="3">
@@ -1057,45 +1057,45 @@
         <v>7</v>
       </c>
       <c r="J3" s="3">
-        <f>(H3+I3)*1.2</f>
+        <f t="shared" ref="J3:J34" si="2">(H3+I3)*1.2</f>
         <v>16.8</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4">
-        <f>K3+L3</f>
+        <f t="shared" ref="M3:M34" si="3">K3+L3</f>
         <v>0</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5">
-        <f>(N3+O3)*0.5</f>
+        <f t="shared" ref="P3:P34" si="4">(N3+O3)*0.5</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>D3+G3+J3+M3+P3</f>
+        <f t="shared" ref="Q3:Q34" si="5">D3+G3+J3+M3+P3</f>
         <v>30</v>
       </c>
       <c r="R3" s="6">
-        <f>Q3/Q$118</f>
+        <f t="shared" ref="R3:R34" si="6">Q3/Q$118</f>
         <v>2.5</v>
       </c>
       <c r="S3">
         <v>4</v>
       </c>
       <c r="T3" s="6">
-        <f>S3/S$118</f>
+        <f t="shared" ref="T3:T34" si="7">S3/S$118</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="U3">
         <v>3</v>
       </c>
       <c r="V3">
-        <f>U3/U$118</f>
+        <f t="shared" ref="V3:V34" si="8">U3/U$118</f>
         <v>0.6</v>
       </c>
       <c r="W3" s="6">
-        <f>R3/(T3+V3)</f>
+        <f t="shared" ref="W3:W34" si="9">R3/(T3+V3)</f>
         <v>1.9736842105263159</v>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <f>(B4+C4)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
@@ -1116,7 +1116,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="2">
-        <f>(E4+F4)*1.1</f>
+        <f t="shared" si="1"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H4" s="3">
@@ -1126,45 +1126,45 @@
         <v>7</v>
       </c>
       <c r="J4" s="3">
-        <f>(H4+I4)*1.2</f>
+        <f t="shared" si="2"/>
         <v>16.8</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4">
-        <f>K4+L4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5">
-        <f>(N4+O4)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>D4+G4+J4+M4+P4</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="R4" s="6">
-        <f>Q4/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="S4">
         <v>4</v>
       </c>
       <c r="T4" s="6">
-        <f>S4/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U4">
         <v>3</v>
       </c>
       <c r="V4">
-        <f>U4/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W4" s="6">
-        <f>R4/(T4+V4)</f>
+        <f t="shared" si="9"/>
         <v>1.9736842105263159</v>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <f>(B5+C5)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="2">
@@ -1185,7 +1185,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="2">
-        <f>(E5+F5)*1.1</f>
+        <f t="shared" si="1"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H5" s="3">
@@ -1195,45 +1195,45 @@
         <v>7</v>
       </c>
       <c r="J5" s="3">
-        <f>(H5+I5)*1.2</f>
+        <f t="shared" si="2"/>
         <v>16.8</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4">
-        <f>K5+L5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5">
-        <f>(N5+O5)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>D5+G5+J5+M5+P5</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="R5" s="6">
-        <f>Q5/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="S5">
         <v>4</v>
       </c>
       <c r="T5" s="6">
-        <f>S5/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U5">
         <v>3</v>
       </c>
       <c r="V5">
-        <f>U5/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W5" s="6">
-        <f>R5/(T5+V5)</f>
+        <f t="shared" si="9"/>
         <v>1.9736842105263159</v>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <f>(B6+C6)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="2">
@@ -1254,7 +1254,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="2">
-        <f>(E6+F6)*1.1</f>
+        <f t="shared" si="1"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H6" s="3">
@@ -1264,45 +1264,45 @@
         <v>7</v>
       </c>
       <c r="J6" s="3">
-        <f>(H6+I6)*1.2</f>
+        <f t="shared" si="2"/>
         <v>15.6</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4">
-        <f>K6+L6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5">
-        <f>(N6+O6)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>D6+G6+J6+M6+P6</f>
+        <f t="shared" si="5"/>
         <v>28.8</v>
       </c>
       <c r="R6" s="6">
-        <f>Q6/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.4</v>
       </c>
       <c r="S6">
         <v>4</v>
       </c>
       <c r="T6" s="6">
-        <f>S6/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U6">
         <v>3</v>
       </c>
       <c r="V6">
-        <f>U6/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W6" s="6">
-        <f>R6/(T6+V6)</f>
+        <f t="shared" si="9"/>
         <v>1.8947368421052633</v>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <f>(B7+C7)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="2">
@@ -1323,7 +1323,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="2">
-        <f>(E7+F7)*1.1</f>
+        <f t="shared" si="1"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H7" s="3">
@@ -1333,45 +1333,45 @@
         <v>7</v>
       </c>
       <c r="J7" s="3">
-        <f>(H7+I7)*1.2</f>
+        <f t="shared" si="2"/>
         <v>15.6</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4">
-        <f>K7+L7</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5">
-        <f>(N7+O7)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>D7+G7+J7+M7+P7</f>
+        <f t="shared" si="5"/>
         <v>28.8</v>
       </c>
       <c r="R7" s="6">
-        <f>Q7/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.4</v>
       </c>
       <c r="S7">
         <v>4</v>
       </c>
       <c r="T7" s="6">
-        <f>S7/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U7">
         <v>3</v>
       </c>
       <c r="V7">
-        <f>U7/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W7" s="6">
-        <f>R7/(T7+V7)</f>
+        <f t="shared" si="9"/>
         <v>1.8947368421052633</v>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <f>(B8+C8)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="2">
@@ -1392,7 +1392,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="2">
-        <f>(E8+F8)*1.1</f>
+        <f t="shared" si="1"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H8" s="3">
@@ -1402,45 +1402,45 @@
         <v>7</v>
       </c>
       <c r="J8" s="3">
-        <f>(H8+I8)*1.2</f>
+        <f t="shared" si="2"/>
         <v>15.6</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4">
-        <f>K8+L8</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5">
-        <f>(N8+O8)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>D8+G8+J8+M8+P8</f>
+        <f t="shared" si="5"/>
         <v>28.8</v>
       </c>
       <c r="R8" s="6">
-        <f>Q8/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.4</v>
       </c>
       <c r="S8">
         <v>4</v>
       </c>
       <c r="T8" s="6">
-        <f>S8/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U8">
         <v>3</v>
       </c>
       <c r="V8">
-        <f>U8/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W8" s="6">
-        <f>R8/(T8+V8)</f>
+        <f t="shared" si="9"/>
         <v>1.8947368421052633</v>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
-        <f>(B9+C9)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="2">
@@ -1461,7 +1461,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="2">
-        <f>(E9+F9)*1.1</f>
+        <f t="shared" si="1"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H9" s="3">
@@ -1471,45 +1471,45 @@
         <v>7</v>
       </c>
       <c r="J9" s="3">
-        <f>(H9+I9)*1.2</f>
+        <f t="shared" si="2"/>
         <v>15.6</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4">
-        <f>K9+L9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5">
-        <f>(N9+O9)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f>D9+G9+J9+M9+P9</f>
+        <f t="shared" si="5"/>
         <v>28.8</v>
       </c>
       <c r="R9" s="6">
-        <f>Q9/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.4</v>
       </c>
       <c r="S9">
         <v>4</v>
       </c>
       <c r="T9" s="6">
-        <f>S9/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U9">
         <v>3</v>
       </c>
       <c r="V9">
-        <f>U9/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W9" s="6">
-        <f>R9/(T9+V9)</f>
+        <f t="shared" si="9"/>
         <v>1.8947368421052633</v>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
-        <f>(B10+C10)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="2">
@@ -1530,7 +1530,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="2">
-        <f>(E10+F10)*1.1</f>
+        <f t="shared" si="1"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H10" s="3">
@@ -1540,45 +1540,45 @@
         <v>7</v>
       </c>
       <c r="J10" s="3">
-        <f>(H10+I10)*1.2</f>
+        <f t="shared" si="2"/>
         <v>15.6</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4">
-        <f>K10+L10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5">
-        <f>(N10+O10)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f>D10+G10+J10+M10+P10</f>
+        <f t="shared" si="5"/>
         <v>28.8</v>
       </c>
       <c r="R10" s="6">
-        <f>Q10/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.4</v>
       </c>
       <c r="S10">
         <v>4</v>
       </c>
       <c r="T10" s="6">
-        <f>S10/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U10">
         <v>3</v>
       </c>
       <c r="V10">
-        <f>U10/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W10" s="6">
-        <f>R10/(T10+V10)</f>
+        <f t="shared" si="9"/>
         <v>1.8947368421052633</v>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
-        <f>(B11+C11)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="2">
@@ -1599,7 +1599,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="2">
-        <f>(E11+F11)*1.1</f>
+        <f t="shared" si="1"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H11" s="3">
@@ -1609,45 +1609,45 @@
         <v>7</v>
       </c>
       <c r="J11" s="3">
-        <f>(H11+I11)*1.2</f>
+        <f t="shared" si="2"/>
         <v>15.6</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4">
-        <f>K11+L11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5">
-        <f>(N11+O11)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>D11+G11+J11+M11+P11</f>
+        <f t="shared" si="5"/>
         <v>28.8</v>
       </c>
       <c r="R11" s="6">
-        <f>Q11/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.4</v>
       </c>
       <c r="S11">
         <v>4</v>
       </c>
       <c r="T11" s="6">
-        <f>S11/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U11">
         <v>3</v>
       </c>
       <c r="V11">
-        <f>U11/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W11" s="6">
-        <f>R11/(T11+V11)</f>
+        <f t="shared" si="9"/>
         <v>1.8947368421052633</v>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
-        <f>(B12+C12)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="2">
@@ -1668,7 +1668,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="2">
-        <f>(E12+F12)*1.1</f>
+        <f t="shared" si="1"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H12" s="3">
@@ -1678,45 +1678,45 @@
         <v>7</v>
       </c>
       <c r="J12" s="3">
-        <f>(H12+I12)*1.2</f>
+        <f t="shared" si="2"/>
         <v>15.6</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4">
-        <f>K12+L12</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5">
-        <f>(N12+O12)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>D12+G12+J12+M12+P12</f>
+        <f t="shared" si="5"/>
         <v>28.8</v>
       </c>
       <c r="R12" s="6">
-        <f>Q12/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.4</v>
       </c>
       <c r="S12">
         <v>4</v>
       </c>
       <c r="T12" s="6">
-        <f>S12/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U12">
         <v>3</v>
       </c>
       <c r="V12">
-        <f>U12/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W12" s="6">
-        <f>R12/(T12+V12)</f>
+        <f t="shared" si="9"/>
         <v>1.8947368421052633</v>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
-        <f>(B13+C13)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="2">
@@ -1737,7 +1737,7 @@
         <v>6</v>
       </c>
       <c r="G13" s="2">
-        <f>(E13+F13)*1.1</f>
+        <f t="shared" si="1"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H13" s="3">
@@ -1747,45 +1747,45 @@
         <v>7</v>
       </c>
       <c r="J13" s="3">
-        <f>(H13+I13)*1.2</f>
+        <f t="shared" si="2"/>
         <v>15.6</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4">
-        <f>K13+L13</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5">
-        <f>(N13+O13)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f>D13+G13+J13+M13+P13</f>
+        <f t="shared" si="5"/>
         <v>28.8</v>
       </c>
       <c r="R13" s="6">
-        <f>Q13/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.4</v>
       </c>
       <c r="S13">
         <v>4</v>
       </c>
       <c r="T13" s="6">
-        <f>S13/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U13">
         <v>3</v>
       </c>
       <c r="V13">
-        <f>U13/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W13" s="6">
-        <f>R13/(T13+V13)</f>
+        <f t="shared" si="9"/>
         <v>1.8947368421052633</v>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
-        <f>(B14+C14)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="2">
@@ -1806,7 +1806,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="2">
-        <f>(E14+F14)*1.1</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H14" s="3">
@@ -1816,45 +1816,45 @@
         <v>6</v>
       </c>
       <c r="J14" s="3">
-        <f>(H14+I14)*1.2</f>
+        <f t="shared" si="2"/>
         <v>13.2</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4">
-        <f>K14+L14</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5">
-        <f>(N14+O14)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f>D14+G14+J14+M14+P14</f>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="R14" s="6">
-        <f>Q14/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.3833333333333333</v>
       </c>
       <c r="S14">
         <v>4</v>
       </c>
       <c r="T14" s="6">
-        <f>S14/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U14">
         <v>3</v>
       </c>
       <c r="V14">
-        <f>U14/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W14" s="6">
-        <f>R14/(T14+V14)</f>
+        <f t="shared" si="9"/>
         <v>1.881578947368421</v>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
-        <f>(B15+C15)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" s="2">
@@ -1875,7 +1875,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="2">
-        <f>(E15+F15)*1.1</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H15" s="3">
@@ -1885,45 +1885,45 @@
         <v>6</v>
       </c>
       <c r="J15" s="3">
-        <f>(H15+I15)*1.2</f>
+        <f t="shared" si="2"/>
         <v>13.2</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4">
-        <f>K15+L15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5">
-        <f>(N15+O15)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f>D15+G15+J15+M15+P15</f>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="R15" s="6">
-        <f>Q15/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.3833333333333333</v>
       </c>
       <c r="S15">
         <v>4</v>
       </c>
       <c r="T15" s="6">
-        <f>S15/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U15">
         <v>3</v>
       </c>
       <c r="V15">
-        <f>U15/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W15" s="6">
-        <f>R15/(T15+V15)</f>
+        <f t="shared" si="9"/>
         <v>1.881578947368421</v>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
-        <f>(B16+C16)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="2">
@@ -1944,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="2">
-        <f>(E16+F16)*1.1</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H16" s="3">
@@ -1954,45 +1954,45 @@
         <v>6</v>
       </c>
       <c r="J16" s="3">
-        <f>(H16+I16)*1.2</f>
+        <f t="shared" si="2"/>
         <v>13.2</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4">
-        <f>K16+L16</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5">
-        <f>(N16+O16)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f>D16+G16+J16+M16+P16</f>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="R16" s="6">
-        <f>Q16/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.3833333333333333</v>
       </c>
       <c r="S16">
         <v>4</v>
       </c>
       <c r="T16" s="6">
-        <f>S16/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U16">
         <v>3</v>
       </c>
       <c r="V16">
-        <f>U16/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W16" s="6">
-        <f>R16/(T16+V16)</f>
+        <f t="shared" si="9"/>
         <v>1.881578947368421</v>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
-        <f>(B17+C17)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="2">
@@ -2013,7 +2013,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="2">
-        <f>(E17+F17)*1.1</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H17" s="3">
@@ -2023,45 +2023,45 @@
         <v>6</v>
       </c>
       <c r="J17" s="3">
-        <f>(H17+I17)*1.2</f>
+        <f t="shared" si="2"/>
         <v>13.2</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4">
-        <f>K17+L17</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5">
-        <f>(N17+O17)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f>D17+G17+J17+M17+P17</f>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="R17" s="6">
-        <f>Q17/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.3833333333333333</v>
       </c>
       <c r="S17">
         <v>4</v>
       </c>
       <c r="T17" s="6">
-        <f>S17/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U17">
         <v>3</v>
       </c>
       <c r="V17">
-        <f>U17/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W17" s="6">
-        <f>R17/(T17+V17)</f>
+        <f t="shared" si="9"/>
         <v>1.881578947368421</v>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
-        <f>(B18+C18)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="2">
@@ -2082,7 +2082,7 @@
         <v>7</v>
       </c>
       <c r="G18" s="2">
-        <f>(E18+F18)*1.1</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H18" s="3">
@@ -2092,45 +2092,45 @@
         <v>6</v>
       </c>
       <c r="J18" s="3">
-        <f>(H18+I18)*1.2</f>
+        <f t="shared" si="2"/>
         <v>13.2</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4">
-        <f>K18+L18</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5">
-        <f>(N18+O18)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f>D18+G18+J18+M18+P18</f>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="R18" s="6">
-        <f>Q18/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.3833333333333333</v>
       </c>
       <c r="S18">
         <v>4</v>
       </c>
       <c r="T18" s="6">
-        <f>S18/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U18">
         <v>3</v>
       </c>
       <c r="V18">
-        <f>U18/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W18" s="6">
-        <f>R18/(T18+V18)</f>
+        <f t="shared" si="9"/>
         <v>1.881578947368421</v>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
-        <f>(B19+C19)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="2">
@@ -2151,7 +2151,7 @@
         <v>7</v>
       </c>
       <c r="G19" s="2">
-        <f>(E19+F19)*1.1</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H19" s="3">
@@ -2161,45 +2161,45 @@
         <v>6</v>
       </c>
       <c r="J19" s="3">
-        <f>(H19+I19)*1.2</f>
+        <f t="shared" si="2"/>
         <v>13.2</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4">
-        <f>K19+L19</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5">
-        <f>(N19+O19)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f>D19+G19+J19+M19+P19</f>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="R19" s="6">
-        <f>Q19/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.3833333333333333</v>
       </c>
       <c r="S19">
         <v>4</v>
       </c>
       <c r="T19" s="6">
-        <f>S19/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U19">
         <v>3</v>
       </c>
       <c r="V19">
-        <f>U19/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W19" s="6">
-        <f>R19/(T19+V19)</f>
+        <f t="shared" si="9"/>
         <v>1.881578947368421</v>
       </c>
     </row>
@@ -2210,7 +2210,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
-        <f>(B20+C20)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" s="2">
@@ -2220,7 +2220,7 @@
         <v>7</v>
       </c>
       <c r="G20" s="2">
-        <f>(E20+F20)*1.1</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H20" s="3">
@@ -2230,45 +2230,45 @@
         <v>6</v>
       </c>
       <c r="J20" s="3">
-        <f>(H20+I20)*1.2</f>
+        <f t="shared" si="2"/>
         <v>13.2</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4">
-        <f>K20+L20</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5">
-        <f>(N20+O20)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f>D20+G20+J20+M20+P20</f>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="R20" s="6">
-        <f>Q20/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.3833333333333333</v>
       </c>
       <c r="S20">
         <v>4</v>
       </c>
       <c r="T20" s="6">
-        <f>S20/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U20">
         <v>3</v>
       </c>
       <c r="V20">
-        <f>U20/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W20" s="6">
-        <f>R20/(T20+V20)</f>
+        <f t="shared" si="9"/>
         <v>1.881578947368421</v>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
-        <f>(B21+C21)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" s="2">
@@ -2289,7 +2289,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="2">
-        <f>(E21+F21)*1.1</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H21" s="3">
@@ -2299,45 +2299,45 @@
         <v>6</v>
       </c>
       <c r="J21" s="3">
-        <f>(H21+I21)*1.2</f>
+        <f t="shared" si="2"/>
         <v>13.2</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4">
-        <f>K21+L21</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5">
-        <f>(N21+O21)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f>D21+G21+J21+M21+P21</f>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="R21" s="6">
-        <f>Q21/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.3833333333333333</v>
       </c>
       <c r="S21">
         <v>4</v>
       </c>
       <c r="T21" s="6">
-        <f>S21/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U21">
         <v>3</v>
       </c>
       <c r="V21">
-        <f>U21/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W21" s="6">
-        <f>R21/(T21+V21)</f>
+        <f t="shared" si="9"/>
         <v>1.881578947368421</v>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
-        <f>(B22+C22)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22" s="2">
@@ -2358,7 +2358,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="2">
-        <f>(E22+F22)*1.1</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H22" s="3">
@@ -2368,45 +2368,45 @@
         <v>6</v>
       </c>
       <c r="J22" s="3">
-        <f>(H22+I22)*1.2</f>
+        <f t="shared" si="2"/>
         <v>13.2</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4">
-        <f>K22+L22</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5">
-        <f>(N22+O22)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f>D22+G22+J22+M22+P22</f>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="R22" s="6">
-        <f>Q22/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.3833333333333333</v>
       </c>
       <c r="S22">
         <v>4</v>
       </c>
       <c r="T22" s="6">
-        <f>S22/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U22">
         <v>3</v>
       </c>
       <c r="V22">
-        <f>U22/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W22" s="6">
-        <f>R22/(T22+V22)</f>
+        <f t="shared" si="9"/>
         <v>1.881578947368421</v>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
-        <f>(B23+C23)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23" s="2">
@@ -2427,7 +2427,7 @@
         <v>7</v>
       </c>
       <c r="G23" s="2">
-        <f>(E23+F23)*1.1</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H23" s="3">
@@ -2437,45 +2437,45 @@
         <v>6</v>
       </c>
       <c r="J23" s="3">
-        <f>(H23+I23)*1.2</f>
+        <f t="shared" si="2"/>
         <v>13.2</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4">
-        <f>K23+L23</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5">
-        <f>(N23+O23)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f>D23+G23+J23+M23+P23</f>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="R23" s="6">
-        <f>Q23/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.3833333333333333</v>
       </c>
       <c r="S23">
         <v>4</v>
       </c>
       <c r="T23" s="6">
-        <f>S23/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U23">
         <v>3</v>
       </c>
       <c r="V23">
-        <f>U23/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W23" s="6">
-        <f>R23/(T23+V23)</f>
+        <f t="shared" si="9"/>
         <v>1.881578947368421</v>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
-        <f>(B24+C24)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24" s="2">
@@ -2496,7 +2496,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="2">
-        <f>(E24+F24)*1.1</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H24" s="3">
@@ -2506,45 +2506,45 @@
         <v>6</v>
       </c>
       <c r="J24" s="3">
-        <f>(H24+I24)*1.2</f>
+        <f t="shared" si="2"/>
         <v>13.2</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4">
-        <f>K24+L24</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5">
-        <f>(N24+O24)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f>D24+G24+J24+M24+P24</f>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="R24" s="6">
-        <f>Q24/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.3833333333333333</v>
       </c>
       <c r="S24">
         <v>4</v>
       </c>
       <c r="T24" s="6">
-        <f>S24/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U24">
         <v>3</v>
       </c>
       <c r="V24">
-        <f>U24/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W24" s="6">
-        <f>R24/(T24+V24)</f>
+        <f t="shared" si="9"/>
         <v>1.881578947368421</v>
       </c>
     </row>
@@ -2555,7 +2555,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
-        <f>(B25+C25)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25" s="2">
@@ -2565,7 +2565,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="2">
-        <f>(E25+F25)*1.1</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H25" s="3">
@@ -2575,45 +2575,45 @@
         <v>6</v>
       </c>
       <c r="J25" s="3">
-        <f>(H25+I25)*1.2</f>
+        <f t="shared" si="2"/>
         <v>13.2</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4">
-        <f>K25+L25</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5">
-        <f>(N25+O25)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f>D25+G25+J25+M25+P25</f>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="R25" s="6">
-        <f>Q25/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.3833333333333333</v>
       </c>
       <c r="S25">
         <v>4</v>
       </c>
       <c r="T25" s="6">
-        <f>S25/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U25">
         <v>3</v>
       </c>
       <c r="V25">
-        <f>U25/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W25" s="6">
-        <f>R25/(T25+V25)</f>
+        <f t="shared" si="9"/>
         <v>1.881578947368421</v>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
-        <f>(B26+C26)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26" s="2">
@@ -2634,7 +2634,7 @@
         <v>7</v>
       </c>
       <c r="G26" s="2">
-        <f>(E26+F26)*1.1</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H26" s="3">
@@ -2644,45 +2644,45 @@
         <v>6</v>
       </c>
       <c r="J26" s="3">
-        <f>(H26+I26)*1.2</f>
+        <f t="shared" si="2"/>
         <v>13.2</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4">
-        <f>K26+L26</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5">
-        <f>(N26+O26)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f>D26+G26+J26+M26+P26</f>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="R26" s="6">
-        <f>Q26/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.3833333333333333</v>
       </c>
       <c r="S26">
         <v>4</v>
       </c>
       <c r="T26" s="6">
-        <f>S26/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U26">
         <v>3</v>
       </c>
       <c r="V26">
-        <f>U26/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W26" s="6">
-        <f>R26/(T26+V26)</f>
+        <f t="shared" si="9"/>
         <v>1.881578947368421</v>
       </c>
     </row>
@@ -2693,7 +2693,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
-        <f>(B27+C27)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" s="2">
@@ -2703,7 +2703,7 @@
         <v>7</v>
       </c>
       <c r="G27" s="2">
-        <f>(E27+F27)*1.1</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H27" s="3">
@@ -2713,13 +2713,13 @@
         <v>6</v>
       </c>
       <c r="J27" s="3">
-        <f>(H27+I27)*1.2</f>
+        <f t="shared" si="2"/>
         <v>14.399999999999999</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4">
-        <f>K27+L27</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N27" s="5">
@@ -2729,33 +2729,33 @@
         <v>7</v>
       </c>
       <c r="P27" s="5">
-        <f>(N27+O27)*0.5</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="Q27">
-        <f>D27+G27+J27+M27+P27</f>
+        <f t="shared" si="5"/>
         <v>36.799999999999997</v>
       </c>
       <c r="R27" s="6">
-        <f>Q27/Q$118</f>
+        <f t="shared" si="6"/>
         <v>3.0666666666666664</v>
       </c>
       <c r="S27">
         <v>5</v>
       </c>
       <c r="T27" s="6">
-        <f>S27/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U27">
         <v>4</v>
       </c>
       <c r="V27">
-        <f>U27/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
       <c r="W27" s="6">
-        <f>R27/(T27+V27)</f>
+        <f t="shared" si="9"/>
         <v>1.8775510204081631</v>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
-        <f>(B28+C28)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28" s="2">
@@ -2776,7 +2776,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="2">
-        <f>(E28+F28)*1.1</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H28" s="3">
@@ -2786,13 +2786,13 @@
         <v>6</v>
       </c>
       <c r="J28" s="3">
-        <f>(H28+I28)*1.2</f>
+        <f t="shared" si="2"/>
         <v>14.399999999999999</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4">
-        <f>K28+L28</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N28" s="5">
@@ -2802,33 +2802,33 @@
         <v>7</v>
       </c>
       <c r="P28" s="5">
-        <f>(N28+O28)*0.5</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="Q28">
-        <f>D28+G28+J28+M28+P28</f>
+        <f t="shared" si="5"/>
         <v>36.799999999999997</v>
       </c>
       <c r="R28" s="6">
-        <f>Q28/Q$118</f>
+        <f t="shared" si="6"/>
         <v>3.0666666666666664</v>
       </c>
       <c r="S28">
         <v>5</v>
       </c>
       <c r="T28" s="6">
-        <f>S28/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U28">
         <v>4</v>
       </c>
       <c r="V28">
-        <f>U28/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
       <c r="W28" s="6">
-        <f>R28/(T28+V28)</f>
+        <f t="shared" si="9"/>
         <v>1.8775510204081631</v>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1">
-        <f>(B29+C29)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29" s="2">
@@ -2849,7 +2849,7 @@
         <v>7</v>
       </c>
       <c r="G29" s="2">
-        <f>(E29+F29)*1.1</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H29" s="3">
@@ -2859,13 +2859,13 @@
         <v>6</v>
       </c>
       <c r="J29" s="3">
-        <f>(H29+I29)*1.2</f>
+        <f t="shared" si="2"/>
         <v>14.399999999999999</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4">
-        <f>K29+L29</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N29" s="5">
@@ -2875,33 +2875,33 @@
         <v>7</v>
       </c>
       <c r="P29" s="5">
-        <f>(N29+O29)*0.5</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="Q29">
-        <f>D29+G29+J29+M29+P29</f>
+        <f t="shared" si="5"/>
         <v>36.799999999999997</v>
       </c>
       <c r="R29" s="6">
-        <f>Q29/Q$118</f>
+        <f t="shared" si="6"/>
         <v>3.0666666666666664</v>
       </c>
       <c r="S29">
         <v>5</v>
       </c>
       <c r="T29" s="6">
-        <f>S29/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U29">
         <v>4</v>
       </c>
       <c r="V29">
-        <f>U29/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
       <c r="W29" s="6">
-        <f>R29/(T29+V29)</f>
+        <f t="shared" si="9"/>
         <v>1.8775510204081631</v>
       </c>
     </row>
@@ -2912,7 +2912,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
-        <f>(B30+C30)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30" s="2">
@@ -2922,7 +2922,7 @@
         <v>7</v>
       </c>
       <c r="G30" s="2">
-        <f>(E30+F30)*1.1</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H30" s="3">
@@ -2932,45 +2932,45 @@
         <v>5</v>
       </c>
       <c r="J30" s="3">
-        <f>(H30+I30)*1.2</f>
+        <f t="shared" si="2"/>
         <v>10.799999999999999</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4">
-        <f>K30+L30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5">
-        <f>(N30+O30)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f>D30+G30+J30+M30+P30</f>
+        <f t="shared" si="5"/>
         <v>26.200000000000003</v>
       </c>
       <c r="R30" s="6">
-        <f>Q30/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.1833333333333336</v>
       </c>
       <c r="S30">
         <v>4</v>
       </c>
       <c r="T30" s="6">
-        <f>S30/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U30">
         <v>3</v>
       </c>
       <c r="V30">
-        <f>U30/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W30" s="6">
-        <f>R30/(T30+V30)</f>
+        <f t="shared" si="9"/>
         <v>1.7236842105263162</v>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
-        <f>(B31+C31)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31" s="2">
@@ -2991,7 +2991,7 @@
         <v>7</v>
       </c>
       <c r="G31" s="2">
-        <f>(E31+F31)*1.1</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H31" s="3">
@@ -3001,45 +3001,45 @@
         <v>5</v>
       </c>
       <c r="J31" s="3">
-        <f>(H31+I31)*1.2</f>
+        <f t="shared" si="2"/>
         <v>10.799999999999999</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4">
-        <f>K31+L31</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5">
-        <f>(N31+O31)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f>D31+G31+J31+M31+P31</f>
+        <f t="shared" si="5"/>
         <v>26.200000000000003</v>
       </c>
       <c r="R31" s="6">
-        <f>Q31/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.1833333333333336</v>
       </c>
       <c r="S31">
         <v>4</v>
       </c>
       <c r="T31" s="6">
-        <f>S31/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U31">
         <v>3</v>
       </c>
       <c r="V31">
-        <f>U31/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W31" s="6">
-        <f>R31/(T31+V31)</f>
+        <f t="shared" si="9"/>
         <v>1.7236842105263162</v>
       </c>
     </row>
@@ -3050,7 +3050,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
-        <f>(B32+C32)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32" s="2">
@@ -3060,7 +3060,7 @@
         <v>7</v>
       </c>
       <c r="G32" s="2">
-        <f>(E32+F32)*1.1</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H32" s="3">
@@ -3070,45 +3070,45 @@
         <v>5</v>
       </c>
       <c r="J32" s="3">
-        <f>(H32+I32)*1.2</f>
+        <f t="shared" si="2"/>
         <v>10.799999999999999</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4">
-        <f>K32+L32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5">
-        <f>(N32+O32)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q32">
-        <f>D32+G32+J32+M32+P32</f>
+        <f t="shared" si="5"/>
         <v>26.200000000000003</v>
       </c>
       <c r="R32" s="6">
-        <f>Q32/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.1833333333333336</v>
       </c>
       <c r="S32">
         <v>4</v>
       </c>
       <c r="T32" s="6">
-        <f>S32/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U32">
         <v>3</v>
       </c>
       <c r="V32">
-        <f>U32/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W32" s="6">
-        <f>R32/(T32+V32)</f>
+        <f t="shared" si="9"/>
         <v>1.7236842105263162</v>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
-        <f>(B33+C33)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33" s="2">
@@ -3129,7 +3129,7 @@
         <v>7</v>
       </c>
       <c r="G33" s="2">
-        <f>(E33+F33)*1.1</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H33" s="3">
@@ -3139,45 +3139,45 @@
         <v>5</v>
       </c>
       <c r="J33" s="3">
-        <f>(H33+I33)*1.2</f>
+        <f t="shared" si="2"/>
         <v>10.799999999999999</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4">
-        <f>K33+L33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5">
-        <f>(N33+O33)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q33">
-        <f>D33+G33+J33+M33+P33</f>
+        <f t="shared" si="5"/>
         <v>26.200000000000003</v>
       </c>
       <c r="R33" s="6">
-        <f>Q33/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.1833333333333336</v>
       </c>
       <c r="S33">
         <v>4</v>
       </c>
       <c r="T33" s="6">
-        <f>S33/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U33">
         <v>3</v>
       </c>
       <c r="V33">
-        <f>U33/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W33" s="6">
-        <f>R33/(T33+V33)</f>
+        <f t="shared" si="9"/>
         <v>1.7236842105263162</v>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
-        <f>(B34+C34)*1.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E34" s="2">
@@ -3198,7 +3198,7 @@
         <v>6</v>
       </c>
       <c r="G34" s="2">
-        <f>(E34+F34)*1.1</f>
+        <f t="shared" si="1"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H34" s="3">
@@ -3208,45 +3208,45 @@
         <v>5</v>
       </c>
       <c r="J34" s="3">
-        <f>(H34+I34)*1.2</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4">
-        <f>K34+L34</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5">
-        <f>(N34+O34)*0.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q34">
-        <f>D34+G34+J34+M34+P34</f>
+        <f t="shared" si="5"/>
         <v>25.200000000000003</v>
       </c>
       <c r="R34" s="6">
-        <f>Q34/Q$118</f>
+        <f t="shared" si="6"/>
         <v>2.1</v>
       </c>
       <c r="S34">
         <v>4</v>
       </c>
       <c r="T34" s="6">
-        <f>S34/S$118</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U34">
         <v>3</v>
       </c>
       <c r="V34">
-        <f>U34/U$118</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="W34" s="6">
-        <f>R34/(T34+V34)</f>
+        <f t="shared" si="9"/>
         <v>1.6578947368421053</v>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
-        <f>(B35+C35)*1.5</f>
+        <f t="shared" ref="D35:D66" si="10">(B35+C35)*1.5</f>
         <v>0</v>
       </c>
       <c r="E35" s="2">
@@ -3267,7 +3267,7 @@
         <v>6</v>
       </c>
       <c r="G35" s="2">
-        <f>(E35+F35)*1.1</f>
+        <f t="shared" ref="G35:G66" si="11">(E35+F35)*1.1</f>
         <v>13.200000000000001</v>
       </c>
       <c r="H35" s="3">
@@ -3277,45 +3277,45 @@
         <v>5</v>
       </c>
       <c r="J35" s="3">
-        <f>(H35+I35)*1.2</f>
+        <f t="shared" ref="J35:J66" si="12">(H35+I35)*1.2</f>
         <v>12</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4">
-        <f>K35+L35</f>
+        <f t="shared" ref="M35:M66" si="13">K35+L35</f>
         <v>0</v>
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5">
-        <f>(N35+O35)*0.5</f>
+        <f t="shared" ref="P35:P66" si="14">(N35+O35)*0.5</f>
         <v>0</v>
       </c>
       <c r="Q35">
-        <f>D35+G35+J35+M35+P35</f>
+        <f t="shared" ref="Q35:Q66" si="15">D35+G35+J35+M35+P35</f>
         <v>25.200000000000003</v>
       </c>
       <c r="R35" s="6">
-        <f>Q35/Q$118</f>
+        <f t="shared" ref="R35:R66" si="16">Q35/Q$118</f>
         <v>2.1</v>
       </c>
       <c r="S35">
         <v>4</v>
       </c>
       <c r="T35" s="6">
-        <f>S35/S$118</f>
+        <f t="shared" ref="T35:T66" si="17">S35/S$118</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="U35">
         <v>3</v>
       </c>
       <c r="V35">
-        <f>U35/U$118</f>
+        <f t="shared" ref="V35:V66" si="18">U35/U$118</f>
         <v>0.6</v>
       </c>
       <c r="W35" s="6">
-        <f>R35/(T35+V35)</f>
+        <f t="shared" ref="W35:W66" si="19">R35/(T35+V35)</f>
         <v>1.6578947368421053</v>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
-        <f>(B36+C36)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E36" s="2">
@@ -3336,7 +3336,7 @@
         <v>6</v>
       </c>
       <c r="G36" s="2">
-        <f>(E36+F36)*1.1</f>
+        <f t="shared" si="11"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H36" s="3">
@@ -3346,45 +3346,45 @@
         <v>5</v>
       </c>
       <c r="J36" s="3">
-        <f>(H36+I36)*1.2</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4">
-        <f>K36+L36</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5">
-        <f>(N36+O36)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q36">
-        <f>D36+G36+J36+M36+P36</f>
+        <f t="shared" si="15"/>
         <v>25.200000000000003</v>
       </c>
       <c r="R36" s="6">
-        <f>Q36/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.1</v>
       </c>
       <c r="S36">
         <v>4</v>
       </c>
       <c r="T36" s="6">
-        <f>S36/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U36">
         <v>3</v>
       </c>
       <c r="V36">
-        <f>U36/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="W36" s="6">
-        <f>R36/(T36+V36)</f>
+        <f t="shared" si="19"/>
         <v>1.6578947368421053</v>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1">
-        <f>(B37+C37)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E37" s="2">
@@ -3405,7 +3405,7 @@
         <v>6</v>
       </c>
       <c r="G37" s="2">
-        <f>(E37+F37)*1.1</f>
+        <f t="shared" si="11"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H37" s="3">
@@ -3415,45 +3415,45 @@
         <v>5</v>
       </c>
       <c r="J37" s="3">
-        <f>(H37+I37)*1.2</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4">
-        <f>K37+L37</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5">
-        <f>(N37+O37)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q37">
-        <f>D37+G37+J37+M37+P37</f>
+        <f t="shared" si="15"/>
         <v>25.200000000000003</v>
       </c>
       <c r="R37" s="6">
-        <f>Q37/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.1</v>
       </c>
       <c r="S37">
         <v>4</v>
       </c>
       <c r="T37" s="6">
-        <f>S37/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U37">
         <v>3</v>
       </c>
       <c r="V37">
-        <f>U37/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="W37" s="6">
-        <f>R37/(T37+V37)</f>
+        <f t="shared" si="19"/>
         <v>1.6578947368421053</v>
       </c>
     </row>
@@ -3464,7 +3464,7 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
-        <f>(B38+C38)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E38" s="2">
@@ -3474,7 +3474,7 @@
         <v>6</v>
       </c>
       <c r="G38" s="2">
-        <f>(E38+F38)*1.1</f>
+        <f t="shared" si="11"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H38" s="3">
@@ -3484,45 +3484,45 @@
         <v>5</v>
       </c>
       <c r="J38" s="3">
-        <f>(H38+I38)*1.2</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4">
-        <f>K38+L38</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5">
-        <f>(N38+O38)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q38">
-        <f>D38+G38+J38+M38+P38</f>
+        <f t="shared" si="15"/>
         <v>25.200000000000003</v>
       </c>
       <c r="R38" s="6">
-        <f>Q38/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.1</v>
       </c>
       <c r="S38">
         <v>4</v>
       </c>
       <c r="T38" s="6">
-        <f>S38/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U38">
         <v>3</v>
       </c>
       <c r="V38">
-        <f>U38/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="W38" s="6">
-        <f>R38/(T38+V38)</f>
+        <f t="shared" si="19"/>
         <v>1.6578947368421053</v>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1">
-        <f>(B39+C39)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E39" s="2">
@@ -3543,7 +3543,7 @@
         <v>6</v>
       </c>
       <c r="G39" s="2">
-        <f>(E39+F39)*1.1</f>
+        <f t="shared" si="11"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H39" s="3">
@@ -3553,45 +3553,45 @@
         <v>5</v>
       </c>
       <c r="J39" s="3">
-        <f>(H39+I39)*1.2</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4">
-        <f>K39+L39</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5">
-        <f>(N39+O39)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q39">
-        <f>D39+G39+J39+M39+P39</f>
+        <f t="shared" si="15"/>
         <v>25.200000000000003</v>
       </c>
       <c r="R39" s="6">
-        <f>Q39/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.1</v>
       </c>
       <c r="S39">
         <v>4</v>
       </c>
       <c r="T39" s="6">
-        <f>S39/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U39">
         <v>3</v>
       </c>
       <c r="V39">
-        <f>U39/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="W39" s="6">
-        <f>R39/(T39+V39)</f>
+        <f t="shared" si="19"/>
         <v>1.6578947368421053</v>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1">
-        <f>(B40+C40)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E40" s="2">
@@ -3612,7 +3612,7 @@
         <v>6</v>
       </c>
       <c r="G40" s="2">
-        <f>(E40+F40)*1.1</f>
+        <f t="shared" si="11"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H40" s="3">
@@ -3622,45 +3622,45 @@
         <v>5</v>
       </c>
       <c r="J40" s="3">
-        <f>(H40+I40)*1.2</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4">
-        <f>K40+L40</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5">
-        <f>(N40+O40)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q40">
-        <f>D40+G40+J40+M40+P40</f>
+        <f t="shared" si="15"/>
         <v>25.200000000000003</v>
       </c>
       <c r="R40" s="6">
-        <f>Q40/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.1</v>
       </c>
       <c r="S40">
         <v>4</v>
       </c>
       <c r="T40" s="6">
-        <f>S40/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U40">
         <v>3</v>
       </c>
       <c r="V40">
-        <f>U40/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="W40" s="6">
-        <f>R40/(T40+V40)</f>
+        <f t="shared" si="19"/>
         <v>1.6578947368421053</v>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1">
-        <f>(B41+C41)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E41" s="2">
@@ -3681,7 +3681,7 @@
         <v>6</v>
       </c>
       <c r="G41" s="2">
-        <f>(E41+F41)*1.1</f>
+        <f t="shared" si="11"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H41" s="3">
@@ -3691,45 +3691,45 @@
         <v>5</v>
       </c>
       <c r="J41" s="3">
-        <f>(H41+I41)*1.2</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4">
-        <f>K41+L41</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5">
-        <f>(N41+O41)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q41">
-        <f>D41+G41+J41+M41+P41</f>
+        <f t="shared" si="15"/>
         <v>25.200000000000003</v>
       </c>
       <c r="R41" s="6">
-        <f>Q41/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.1</v>
       </c>
       <c r="S41">
         <v>4</v>
       </c>
       <c r="T41" s="6">
-        <f>S41/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U41">
         <v>3</v>
       </c>
       <c r="V41">
-        <f>U41/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="W41" s="6">
-        <f>R41/(T41+V41)</f>
+        <f t="shared" si="19"/>
         <v>1.6578947368421053</v>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
-        <f>(B42+C42)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E42" s="2">
@@ -3750,7 +3750,7 @@
         <v>6</v>
       </c>
       <c r="G42" s="2">
-        <f>(E42+F42)*1.1</f>
+        <f t="shared" si="11"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H42" s="3">
@@ -3760,45 +3760,45 @@
         <v>5</v>
       </c>
       <c r="J42" s="3">
-        <f>(H42+I42)*1.2</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4">
-        <f>K42+L42</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5">
-        <f>(N42+O42)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q42">
-        <f>D42+G42+J42+M42+P42</f>
+        <f t="shared" si="15"/>
         <v>25.200000000000003</v>
       </c>
       <c r="R42" s="6">
-        <f>Q42/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.1</v>
       </c>
       <c r="S42">
         <v>4</v>
       </c>
       <c r="T42" s="6">
-        <f>S42/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U42">
         <v>3</v>
       </c>
       <c r="V42">
-        <f>U42/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="W42" s="6">
-        <f>R42/(T42+V42)</f>
+        <f t="shared" si="19"/>
         <v>1.6578947368421053</v>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1">
-        <f>(B43+C43)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E43" s="2">
@@ -3819,7 +3819,7 @@
         <v>7</v>
       </c>
       <c r="G43" s="2">
-        <f>(E43+F43)*1.1</f>
+        <f t="shared" si="11"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H43" s="3">
@@ -3829,45 +3829,45 @@
         <v>7</v>
       </c>
       <c r="J43" s="3">
-        <f>(H43+I43)*1.2</f>
+        <f t="shared" si="12"/>
         <v>15.6</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4">
-        <f>K43+L43</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5">
-        <f>(N43+O43)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q43">
-        <f>D43+G43+J43+M43+P43</f>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="R43" s="6">
-        <f>Q43/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.5833333333333335</v>
       </c>
       <c r="S43">
         <v>5</v>
       </c>
       <c r="T43" s="6">
-        <f>S43/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U43">
         <v>4</v>
       </c>
       <c r="V43">
-        <f>U43/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.8</v>
       </c>
       <c r="W43" s="6">
-        <f>R43/(T43+V43)</f>
+        <f t="shared" si="19"/>
         <v>1.5816326530612246</v>
       </c>
     </row>
@@ -3878,7 +3878,7 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
-        <f>(B44+C44)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E44" s="2">
@@ -3888,7 +3888,7 @@
         <v>6</v>
       </c>
       <c r="G44" s="2">
-        <f>(E44+F44)*1.1</f>
+        <f t="shared" si="11"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H44" s="3">
@@ -3898,45 +3898,45 @@
         <v>4</v>
       </c>
       <c r="J44" s="3">
-        <f>(H44+I44)*1.2</f>
+        <f t="shared" si="12"/>
         <v>10.799999999999999</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4">
-        <f>K44+L44</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5">
-        <f>(N44+O44)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q44">
-        <f>D44+G44+J44+M44+P44</f>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="R44" s="6">
-        <f>Q44/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="S44">
         <v>4</v>
       </c>
       <c r="T44" s="6">
-        <f>S44/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U44">
         <v>3</v>
       </c>
       <c r="V44">
-        <f>U44/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="W44" s="6">
-        <f>R44/(T44+V44)</f>
+        <f t="shared" si="19"/>
         <v>1.5789473684210527</v>
       </c>
     </row>
@@ -3947,7 +3947,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1">
-        <f>(B45+C45)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E45" s="2">
@@ -3957,7 +3957,7 @@
         <v>6</v>
       </c>
       <c r="G45" s="2">
-        <f>(E45+F45)*1.1</f>
+        <f t="shared" si="11"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H45" s="3">
@@ -3967,45 +3967,45 @@
         <v>4</v>
       </c>
       <c r="J45" s="3">
-        <f>(H45+I45)*1.2</f>
+        <f t="shared" si="12"/>
         <v>10.799999999999999</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4">
-        <f>K45+L45</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5">
-        <f>(N45+O45)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q45">
-        <f>D45+G45+J45+M45+P45</f>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="R45" s="6">
-        <f>Q45/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="S45">
         <v>4</v>
       </c>
       <c r="T45" s="6">
-        <f>S45/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U45">
         <v>3</v>
       </c>
       <c r="V45">
-        <f>U45/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="W45" s="6">
-        <f>R45/(T45+V45)</f>
+        <f t="shared" si="19"/>
         <v>1.5789473684210527</v>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
-        <f>(B46+C46)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E46" s="2">
@@ -4026,7 +4026,7 @@
         <v>6</v>
       </c>
       <c r="G46" s="2">
-        <f>(E46+F46)*1.1</f>
+        <f t="shared" si="11"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H46" s="3">
@@ -4036,45 +4036,45 @@
         <v>4</v>
       </c>
       <c r="J46" s="3">
-        <f>(H46+I46)*1.2</f>
+        <f t="shared" si="12"/>
         <v>10.799999999999999</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4">
-        <f>K46+L46</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5">
-        <f>(N46+O46)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q46">
-        <f>D46+G46+J46+M46+P46</f>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="R46" s="6">
-        <f>Q46/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="S46">
         <v>4</v>
       </c>
       <c r="T46" s="6">
-        <f>S46/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U46">
         <v>3</v>
       </c>
       <c r="V46">
-        <f>U46/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="W46" s="6">
-        <f>R46/(T46+V46)</f>
+        <f t="shared" si="19"/>
         <v>1.5789473684210527</v>
       </c>
     </row>
@@ -4085,7 +4085,7 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1">
-        <f>(B47+C47)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E47" s="2">
@@ -4095,7 +4095,7 @@
         <v>6</v>
       </c>
       <c r="G47" s="2">
-        <f>(E47+F47)*1.1</f>
+        <f t="shared" si="11"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H47" s="3">
@@ -4105,45 +4105,45 @@
         <v>4</v>
       </c>
       <c r="J47" s="3">
-        <f>(H47+I47)*1.2</f>
+        <f t="shared" si="12"/>
         <v>10.799999999999999</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4">
-        <f>K47+L47</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5">
-        <f>(N47+O47)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q47">
-        <f>D47+G47+J47+M47+P47</f>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="R47" s="6">
-        <f>Q47/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="S47">
         <v>4</v>
       </c>
       <c r="T47" s="6">
-        <f>S47/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U47">
         <v>3</v>
       </c>
       <c r="V47">
-        <f>U47/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="W47" s="6">
-        <f>R47/(T47+V47)</f>
+        <f t="shared" si="19"/>
         <v>1.5789473684210527</v>
       </c>
     </row>
@@ -4154,7 +4154,7 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
-        <f>(B48+C48)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E48" s="2">
@@ -4164,7 +4164,7 @@
         <v>6</v>
       </c>
       <c r="G48" s="2">
-        <f>(E48+F48)*1.1</f>
+        <f t="shared" si="11"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H48" s="3">
@@ -4174,45 +4174,45 @@
         <v>4</v>
       </c>
       <c r="J48" s="3">
-        <f>(H48+I48)*1.2</f>
+        <f t="shared" si="12"/>
         <v>10.799999999999999</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4">
-        <f>K48+L48</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5">
-        <f>(N48+O48)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q48">
-        <f>D48+G48+J48+M48+P48</f>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="R48" s="6">
-        <f>Q48/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="S48">
         <v>4</v>
       </c>
       <c r="T48" s="6">
-        <f>S48/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U48">
         <v>3</v>
       </c>
       <c r="V48">
-        <f>U48/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="W48" s="6">
-        <f>R48/(T48+V48)</f>
+        <f t="shared" si="19"/>
         <v>1.5789473684210527</v>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1">
-        <f>(B49+C49)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E49" s="2">
@@ -4233,7 +4233,7 @@
         <v>6</v>
       </c>
       <c r="G49" s="2">
-        <f>(E49+F49)*1.1</f>
+        <f t="shared" si="11"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H49" s="3">
@@ -4243,45 +4243,45 @@
         <v>4</v>
       </c>
       <c r="J49" s="3">
-        <f>(H49+I49)*1.2</f>
+        <f t="shared" si="12"/>
         <v>10.799999999999999</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4">
-        <f>K49+L49</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5">
-        <f>(N49+O49)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q49">
-        <f>D49+G49+J49+M49+P49</f>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="R49" s="6">
-        <f>Q49/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="S49">
         <v>4</v>
       </c>
       <c r="T49" s="6">
-        <f>S49/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U49">
         <v>3</v>
       </c>
       <c r="V49">
-        <f>U49/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="W49" s="6">
-        <f>R49/(T49+V49)</f>
+        <f t="shared" si="19"/>
         <v>1.5789473684210527</v>
       </c>
     </row>
@@ -4292,7 +4292,7 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1">
-        <f>(B50+C50)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E50" s="2">
@@ -4302,7 +4302,7 @@
         <v>6</v>
       </c>
       <c r="G50" s="2">
-        <f>(E50+F50)*1.1</f>
+        <f t="shared" si="11"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H50" s="3">
@@ -4312,45 +4312,45 @@
         <v>4</v>
       </c>
       <c r="J50" s="3">
-        <f>(H50+I50)*1.2</f>
+        <f t="shared" si="12"/>
         <v>10.799999999999999</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4">
-        <f>K50+L50</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5">
-        <f>(N50+O50)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q50">
-        <f>D50+G50+J50+M50+P50</f>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="R50" s="6">
-        <f>Q50/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="S50">
         <v>4</v>
       </c>
       <c r="T50" s="6">
-        <f>S50/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U50">
         <v>3</v>
       </c>
       <c r="V50">
-        <f>U50/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="W50" s="6">
-        <f>R50/(T50+V50)</f>
+        <f t="shared" si="19"/>
         <v>1.5789473684210527</v>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1">
-        <f>(B51+C51)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E51" s="2">
@@ -4371,7 +4371,7 @@
         <v>6</v>
       </c>
       <c r="G51" s="2">
-        <f>(E51+F51)*1.1</f>
+        <f t="shared" si="11"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H51" s="3">
@@ -4381,45 +4381,45 @@
         <v>4</v>
       </c>
       <c r="J51" s="3">
-        <f>(H51+I51)*1.2</f>
+        <f t="shared" si="12"/>
         <v>10.799999999999999</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4">
-        <f>K51+L51</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5">
-        <f>(N51+O51)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q51">
-        <f>D51+G51+J51+M51+P51</f>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="R51" s="6">
-        <f>Q51/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="S51">
         <v>4</v>
       </c>
       <c r="T51" s="6">
-        <f>S51/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U51">
         <v>3</v>
       </c>
       <c r="V51">
-        <f>U51/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="W51" s="6">
-        <f>R51/(T51+V51)</f>
+        <f t="shared" si="19"/>
         <v>1.5789473684210527</v>
       </c>
     </row>
@@ -4430,7 +4430,7 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
-        <f>(B52+C52)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E52" s="2">
@@ -4440,7 +4440,7 @@
         <v>6</v>
       </c>
       <c r="G52" s="2">
-        <f>(E52+F52)*1.1</f>
+        <f t="shared" si="11"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H52" s="3">
@@ -4450,45 +4450,45 @@
         <v>4</v>
       </c>
       <c r="J52" s="3">
-        <f>(H52+I52)*1.2</f>
+        <f t="shared" si="12"/>
         <v>10.799999999999999</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4">
-        <f>K52+L52</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5">
-        <f>(N52+O52)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q52">
-        <f>D52+G52+J52+M52+P52</f>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="R52" s="6">
-        <f>Q52/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="S52">
         <v>4</v>
       </c>
       <c r="T52" s="6">
-        <f>S52/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U52">
         <v>3</v>
       </c>
       <c r="V52">
-        <f>U52/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="W52" s="6">
-        <f>R52/(T52+V52)</f>
+        <f t="shared" si="19"/>
         <v>1.5789473684210527</v>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1">
-        <f>(B53+C53)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E53" s="2">
@@ -4509,7 +4509,7 @@
         <v>6</v>
       </c>
       <c r="G53" s="2">
-        <f>(E53+F53)*1.1</f>
+        <f t="shared" si="11"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H53" s="3">
@@ -4519,45 +4519,45 @@
         <v>7</v>
       </c>
       <c r="J53" s="3">
-        <f>(H53+I53)*1.2</f>
+        <f t="shared" si="12"/>
         <v>16.8</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4">
-        <f>K53+L53</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5">
-        <f>(N53+O53)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q53">
-        <f>D53+G53+J53+M53+P53</f>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="R53" s="6">
-        <f>Q53/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.5</v>
       </c>
       <c r="S53">
         <v>5</v>
       </c>
       <c r="T53" s="6">
-        <f>S53/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U53">
         <v>4</v>
       </c>
       <c r="V53">
-        <f>U53/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.8</v>
       </c>
       <c r="W53" s="6">
-        <f>R53/(T53+V53)</f>
+        <f t="shared" si="19"/>
         <v>1.5306122448979591</v>
       </c>
     </row>
@@ -4568,7 +4568,7 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1">
-        <f>(B54+C54)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E54" s="2">
@@ -4578,7 +4578,7 @@
         <v>6</v>
       </c>
       <c r="G54" s="2">
-        <f>(E54+F54)*1.1</f>
+        <f t="shared" si="11"/>
         <v>13.200000000000001</v>
       </c>
       <c r="H54" s="3">
@@ -4588,45 +4588,45 @@
         <v>7</v>
       </c>
       <c r="J54" s="3">
-        <f>(H54+I54)*1.2</f>
+        <f t="shared" si="12"/>
         <v>16.8</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4">
-        <f>K54+L54</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5">
-        <f>(N54+O54)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q54">
-        <f>D54+G54+J54+M54+P54</f>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="R54" s="6">
-        <f>Q54/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.5</v>
       </c>
       <c r="S54">
         <v>5</v>
       </c>
       <c r="T54" s="6">
-        <f>S54/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U54">
         <v>4</v>
       </c>
       <c r="V54">
-        <f>U54/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.8</v>
       </c>
       <c r="W54" s="6">
-        <f>R54/(T54+V54)</f>
+        <f t="shared" si="19"/>
         <v>1.5306122448979591</v>
       </c>
     </row>
@@ -4637,7 +4637,7 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1">
-        <f>(B55+C55)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E55" s="2">
@@ -4647,7 +4647,7 @@
         <v>7</v>
       </c>
       <c r="G55" s="2">
-        <f>(E55+F55)*1.1</f>
+        <f t="shared" si="11"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H55" s="3">
@@ -4657,45 +4657,45 @@
         <v>6</v>
       </c>
       <c r="J55" s="3">
-        <f>(H55+I55)*1.2</f>
+        <f t="shared" si="12"/>
         <v>14.399999999999999</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4">
-        <f>K55+L55</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5">
-        <f>(N55+O55)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q55">
-        <f>D55+G55+J55+M55+P55</f>
+        <f t="shared" si="15"/>
         <v>29.8</v>
       </c>
       <c r="R55" s="6">
-        <f>Q55/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.4833333333333334</v>
       </c>
       <c r="S55">
         <v>5</v>
       </c>
       <c r="T55" s="6">
-        <f>S55/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U55">
         <v>4</v>
       </c>
       <c r="V55">
-        <f>U55/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.8</v>
       </c>
       <c r="W55" s="6">
-        <f>R55/(T55+V55)</f>
+        <f t="shared" si="19"/>
         <v>1.5204081632653061</v>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1">
-        <f>(B56+C56)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E56" s="2">
@@ -4716,7 +4716,7 @@
         <v>7</v>
       </c>
       <c r="G56" s="2">
-        <f>(E56+F56)*1.1</f>
+        <f t="shared" si="11"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H56" s="3">
@@ -4726,45 +4726,45 @@
         <v>6</v>
       </c>
       <c r="J56" s="3">
-        <f>(H56+I56)*1.2</f>
+        <f t="shared" si="12"/>
         <v>14.399999999999999</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4">
-        <f>K56+L56</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5">
-        <f>(N56+O56)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q56">
-        <f>D56+G56+J56+M56+P56</f>
+        <f t="shared" si="15"/>
         <v>29.8</v>
       </c>
       <c r="R56" s="6">
-        <f>Q56/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.4833333333333334</v>
       </c>
       <c r="S56">
         <v>5</v>
       </c>
       <c r="T56" s="6">
-        <f>S56/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U56">
         <v>4</v>
       </c>
       <c r="V56">
-        <f>U56/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.8</v>
       </c>
       <c r="W56" s="6">
-        <f>R56/(T56+V56)</f>
+        <f t="shared" si="19"/>
         <v>1.5204081632653061</v>
       </c>
     </row>
@@ -4775,7 +4775,7 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1">
-        <f>(B57+C57)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E57" s="2">
@@ -4785,7 +4785,7 @@
         <v>7</v>
       </c>
       <c r="G57" s="2">
-        <f>(E57+F57)*1.1</f>
+        <f t="shared" si="11"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H57" s="3">
@@ -4795,45 +4795,45 @@
         <v>6</v>
       </c>
       <c r="J57" s="3">
-        <f>(H57+I57)*1.2</f>
+        <f t="shared" si="12"/>
         <v>13.2</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4">
-        <f>K57+L57</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="5">
-        <f>(N57+O57)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q57">
-        <f>D57+G57+J57+M57+P57</f>
+        <f t="shared" si="15"/>
         <v>28.6</v>
       </c>
       <c r="R57" s="6">
-        <f>Q57/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.3833333333333333</v>
       </c>
       <c r="S57">
         <v>5</v>
       </c>
       <c r="T57" s="6">
-        <f>S57/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U57">
         <v>4</v>
       </c>
       <c r="V57">
-        <f>U57/U$118</f>
+        <f t="shared" si="18"/>
         <v>0.8</v>
       </c>
       <c r="W57" s="6">
-        <f>R57/(T57+V57)</f>
+        <f t="shared" si="19"/>
         <v>1.4591836734693877</v>
       </c>
     </row>
@@ -4844,7 +4844,7 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1">
-        <f>(B58+C58)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E58" s="2">
@@ -4854,7 +4854,7 @@
         <v>7</v>
       </c>
       <c r="G58" s="2">
-        <f>(E58+F58)*1.1</f>
+        <f t="shared" si="11"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H58" s="3">
@@ -4864,45 +4864,45 @@
         <v>6</v>
       </c>
       <c r="J58" s="3">
-        <f>(H58+I58)*1.2</f>
+        <f t="shared" si="12"/>
         <v>13.2</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4">
-        <f>K58+L58</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="5">
-        <f>(N58+O58)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q58">
-        <f>D58+G58+J58+M58+P58</f>
+        <f t="shared" si="15"/>
         <v>28.6</v>
       </c>
       <c r="R58" s="6">
-        <f>Q58/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.3833333333333333</v>
       </c>
       <c r="S58">
         <v>5</v>
       </c>
       <c r="T58" s="6">
-        <f>S58/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U58">
         <v>5</v>
       </c>
       <c r="V58">
-        <f>U58/U$118</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W58" s="6">
-        <f>R58/(T58+V58)</f>
+        <f t="shared" si="19"/>
         <v>1.2999999999999998</v>
       </c>
     </row>
@@ -4913,7 +4913,7 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1">
-        <f>(B59+C59)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E59" s="2">
@@ -4923,7 +4923,7 @@
         <v>7</v>
       </c>
       <c r="G59" s="2">
-        <f>(E59+F59)*1.1</f>
+        <f t="shared" si="11"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H59" s="3">
@@ -4933,45 +4933,45 @@
         <v>6</v>
       </c>
       <c r="J59" s="3">
-        <f>(H59+I59)*1.2</f>
+        <f t="shared" si="12"/>
         <v>13.2</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4">
-        <f>K59+L59</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="5">
-        <f>(N59+O59)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q59">
-        <f>D59+G59+J59+M59+P59</f>
+        <f t="shared" si="15"/>
         <v>28.6</v>
       </c>
       <c r="R59" s="6">
-        <f>Q59/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.3833333333333333</v>
       </c>
       <c r="S59">
         <v>5</v>
       </c>
       <c r="T59" s="6">
-        <f>S59/S$118</f>
+        <f t="shared" si="17"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U59">
         <v>5</v>
       </c>
       <c r="V59">
-        <f>U59/U$118</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W59" s="6">
-        <f>R59/(T59+V59)</f>
+        <f t="shared" si="19"/>
         <v>1.2999999999999998</v>
       </c>
     </row>
@@ -4982,7 +4982,7 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1">
-        <f>(B60+C60)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E60" s="2">
@@ -4992,7 +4992,7 @@
         <v>8</v>
       </c>
       <c r="G60" s="2">
-        <f>(E60+F60)*1.1</f>
+        <f t="shared" si="11"/>
         <v>17.600000000000001</v>
       </c>
       <c r="H60" s="3">
@@ -5002,45 +5002,45 @@
         <v>6</v>
       </c>
       <c r="J60" s="3">
-        <f>(H60+I60)*1.2</f>
+        <f t="shared" si="12"/>
         <v>13.2</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4">
-        <f>K60+L60</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5">
-        <f>(N60+O60)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q60">
-        <f>D60+G60+J60+M60+P60</f>
+        <f t="shared" si="15"/>
         <v>30.8</v>
       </c>
       <c r="R60" s="6">
-        <f>Q60/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.5666666666666669</v>
       </c>
       <c r="S60">
         <v>6</v>
       </c>
       <c r="T60" s="6">
-        <f>S60/S$118</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U60">
         <v>5</v>
       </c>
       <c r="V60">
-        <f>U60/U$118</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W60" s="6">
-        <f>R60/(T60+V60)</f>
+        <f t="shared" si="19"/>
         <v>1.2833333333333334</v>
       </c>
     </row>
@@ -5051,7 +5051,7 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1">
-        <f>(B61+C61)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E61" s="2">
@@ -5061,7 +5061,7 @@
         <v>8</v>
       </c>
       <c r="G61" s="2">
-        <f>(E61+F61)*1.1</f>
+        <f t="shared" si="11"/>
         <v>17.600000000000001</v>
       </c>
       <c r="H61" s="3">
@@ -5071,45 +5071,45 @@
         <v>6</v>
       </c>
       <c r="J61" s="3">
-        <f>(H61+I61)*1.2</f>
+        <f t="shared" si="12"/>
         <v>13.2</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4">
-        <f>K61+L61</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5">
-        <f>(N61+O61)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q61">
-        <f>D61+G61+J61+M61+P61</f>
+        <f t="shared" si="15"/>
         <v>30.8</v>
       </c>
       <c r="R61" s="6">
-        <f>Q61/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.5666666666666669</v>
       </c>
       <c r="S61">
         <v>6</v>
       </c>
       <c r="T61" s="6">
-        <f>S61/S$118</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U61">
         <v>5</v>
       </c>
       <c r="V61">
-        <f>U61/U$118</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W61" s="6">
-        <f>R61/(T61+V61)</f>
+        <f t="shared" si="19"/>
         <v>1.2833333333333334</v>
       </c>
     </row>
@@ -5120,7 +5120,7 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1">
-        <f>(B62+C62)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E62" s="2">
@@ -5130,7 +5130,7 @@
         <v>7</v>
       </c>
       <c r="G62" s="2">
-        <f>(E62+F62)*1.1</f>
+        <f t="shared" si="11"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H62" s="3">
@@ -5140,45 +5140,45 @@
         <v>6</v>
       </c>
       <c r="J62" s="3">
-        <f>(H62+I62)*1.2</f>
+        <f t="shared" si="12"/>
         <v>14.399999999999999</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4">
-        <f>K62+L62</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="5">
-        <f>(N62+O62)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q62">
-        <f>D62+G62+J62+M62+P62</f>
+        <f t="shared" si="15"/>
         <v>29.8</v>
       </c>
       <c r="R62" s="6">
-        <f>Q62/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.4833333333333334</v>
       </c>
       <c r="S62">
         <v>6</v>
       </c>
       <c r="T62" s="6">
-        <f>S62/S$118</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U62">
         <v>5</v>
       </c>
       <c r="V62">
-        <f>U62/U$118</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W62" s="6">
-        <f>R62/(T62+V62)</f>
+        <f t="shared" si="19"/>
         <v>1.2416666666666667</v>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1">
-        <f>(B63+C63)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E63" s="2">
@@ -5199,7 +5199,7 @@
         <v>7</v>
       </c>
       <c r="G63" s="2">
-        <f>(E63+F63)*1.1</f>
+        <f t="shared" si="11"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H63" s="3">
@@ -5209,45 +5209,45 @@
         <v>6</v>
       </c>
       <c r="J63" s="3">
-        <f>(H63+I63)*1.2</f>
+        <f t="shared" si="12"/>
         <v>14.399999999999999</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4">
-        <f>K63+L63</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="5">
-        <f>(N63+O63)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q63">
-        <f>D63+G63+J63+M63+P63</f>
+        <f t="shared" si="15"/>
         <v>29.8</v>
       </c>
       <c r="R63" s="6">
-        <f>Q63/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.4833333333333334</v>
       </c>
       <c r="S63">
         <v>6</v>
       </c>
       <c r="T63" s="6">
-        <f>S63/S$118</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U63">
         <v>5</v>
       </c>
       <c r="V63">
-        <f>U63/U$118</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W63" s="6">
-        <f>R63/(T63+V63)</f>
+        <f t="shared" si="19"/>
         <v>1.2416666666666667</v>
       </c>
     </row>
@@ -5258,7 +5258,7 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1">
-        <f>(B64+C64)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E64" s="2">
@@ -5268,7 +5268,7 @@
         <v>7</v>
       </c>
       <c r="G64" s="2">
-        <f>(E64+F64)*1.1</f>
+        <f t="shared" si="11"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H64" s="3">
@@ -5278,45 +5278,45 @@
         <v>6</v>
       </c>
       <c r="J64" s="3">
-        <f>(H64+I64)*1.2</f>
+        <f t="shared" si="12"/>
         <v>14.399999999999999</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4">
-        <f>K64+L64</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="5">
-        <f>(N64+O64)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q64">
-        <f>D64+G64+J64+M64+P64</f>
+        <f t="shared" si="15"/>
         <v>29.8</v>
       </c>
       <c r="R64" s="6">
-        <f>Q64/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.4833333333333334</v>
       </c>
       <c r="S64">
         <v>6</v>
       </c>
       <c r="T64" s="6">
-        <f>S64/S$118</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U64">
         <v>5</v>
       </c>
       <c r="V64">
-        <f>U64/U$118</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W64" s="6">
-        <f>R64/(T64+V64)</f>
+        <f t="shared" si="19"/>
         <v>1.2416666666666667</v>
       </c>
     </row>
@@ -5327,7 +5327,7 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1">
-        <f>(B65+C65)*1.5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E65" s="2">
@@ -5337,7 +5337,7 @@
         <v>7</v>
       </c>
       <c r="G65" s="2">
-        <f>(E65+F65)*1.1</f>
+        <f t="shared" si="11"/>
         <v>15.400000000000002</v>
       </c>
       <c r="H65" s="3">
@@ -5347,45 +5347,45 @@
         <v>6</v>
       </c>
       <c r="J65" s="3">
-        <f>(H65+I65)*1.2</f>
+        <f t="shared" si="12"/>
         <v>14.399999999999999</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4">
-        <f>K65+L65</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="5">
-        <f>(N65+O65)*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q65">
-        <f>D65+G65+J65+M65+P65</f>
+        <f t="shared" si="15"/>
         <v>29.8</v>
       </c>
       <c r="R65" s="6">
-        <f>Q65/Q$118</f>
+        <f t="shared" si="16"/>
         <v>2.4833333333333334</v>
       </c>
       <c r="S65">
         <v>6</v>
       </c>
       <c r="T65" s="6">
-        <f>S65/S$118</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U65">
         <v>5</v>
       </c>
       <c r="V65">
-        <f>U65/U$118</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W65" s="6">
-        <f>R65/(T65+V65)</f>
+        <f t="shared" si="19"/>
         <v>1.2416666666666667</v>
       </c>
     </row>
@@ -5400,25 +5400,25 @@
         <v>9</v>
       </c>
       <c r="D66" s="1">
-        <f>(B66+C66)*1.5</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2">
-        <f>(E66+F66)*1.1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3">
-        <f>(H66+I66)*1.2</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4">
-        <f>K66+L66</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N66" s="5">
@@ -5428,33 +5428,33 @@
         <v>9</v>
       </c>
       <c r="P66" s="5">
-        <f>(N66+O66)*0.5</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="Q66">
-        <f>D66+G66+J66+M66+P66</f>
+        <f t="shared" si="15"/>
         <v>36</v>
       </c>
       <c r="R66" s="6">
-        <f>Q66/Q$118</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="S66">
         <v>6</v>
       </c>
       <c r="T66" s="6">
-        <f>S66/S$118</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U66">
         <v>7</v>
       </c>
       <c r="V66">
-        <f>U66/U$118</f>
+        <f t="shared" si="18"/>
         <v>1.4</v>
       </c>
       <c r="W66" s="6">
-        <f>R66/(T66+V66)</f>
+        <f t="shared" si="19"/>
         <v>1.25</v>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1">
-        <f>(B67+C67)*1.5</f>
+        <f t="shared" ref="D67:D98" si="20">(B67+C67)*1.5</f>
         <v>0</v>
       </c>
       <c r="E67" s="2">
@@ -5475,7 +5475,7 @@
         <v>6</v>
       </c>
       <c r="G67" s="2">
-        <f>(E67+F67)*1.1</f>
+        <f t="shared" ref="G67:G98" si="21">(E67+F67)*1.1</f>
         <v>13.200000000000001</v>
       </c>
       <c r="H67" s="3">
@@ -5485,45 +5485,45 @@
         <v>4</v>
       </c>
       <c r="J67" s="3">
-        <f>(H67+I67)*1.2</f>
+        <f t="shared" ref="J67:J98" si="22">(H67+I67)*1.2</f>
         <v>10.799999999999999</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4">
-        <f>K67+L67</f>
+        <f t="shared" ref="M67:M98" si="23">K67+L67</f>
         <v>0</v>
       </c>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="5">
-        <f>(N67+O67)*0.5</f>
+        <f t="shared" ref="P67:P98" si="24">(N67+O67)*0.5</f>
         <v>0</v>
       </c>
       <c r="Q67">
-        <f>D67+G67+J67+M67+P67</f>
+        <f t="shared" ref="Q67:Q98" si="25">D67+G67+J67+M67+P67</f>
         <v>24</v>
       </c>
       <c r="R67" s="6">
-        <f>Q67/Q$118</f>
+        <f t="shared" ref="R67:R98" si="26">Q67/Q$118</f>
         <v>2</v>
       </c>
       <c r="S67">
         <v>5</v>
       </c>
       <c r="T67" s="6">
-        <f>S67/S$118</f>
+        <f t="shared" ref="T67:T98" si="27">S67/S$118</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="U67">
         <v>4</v>
       </c>
       <c r="V67">
-        <f>U67/U$118</f>
+        <f t="shared" ref="V67:V98" si="28">U67/U$118</f>
         <v>0.8</v>
       </c>
       <c r="W67" s="6">
-        <f>R67/(T67+V67)</f>
+        <f t="shared" ref="W67:W98" si="29">R67/(T67+V67)</f>
         <v>1.2244897959183674</v>
       </c>
     </row>
@@ -5538,57 +5538,57 @@
         <v>8</v>
       </c>
       <c r="D68" s="1">
-        <f>(B68+C68)*1.5</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2">
-        <f>(E68+F68)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3">
-        <f>(H68+I68)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4">
-        <f>K68+L68</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="5">
-        <f>(N68+O68)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q68">
-        <f>D68+G68+J68+M68+P68</f>
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="R68" s="6">
-        <f>Q68/Q$118</f>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="S68">
         <v>7</v>
       </c>
       <c r="T68" s="6">
-        <f>S68/S$118</f>
+        <f t="shared" si="27"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="U68">
         <v>5</v>
       </c>
       <c r="V68">
-        <f>U68/U$118</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="W68" s="6">
-        <f>R68/(T68+V68)</f>
+        <f t="shared" si="29"/>
         <v>0.92307692307692291</v>
       </c>
     </row>
@@ -5599,19 +5599,19 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1">
-        <f>(B69+C69)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2">
-        <f>(E69+F69)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3">
-        <f>(H69+I69)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K69" s="4">
@@ -5621,39 +5621,39 @@
         <v>7</v>
       </c>
       <c r="M69" s="4">
-        <f>K69+L69</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="5">
-        <f>(N69+O69)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q69">
-        <f>D69+G69+J69+M69+P69</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="R69" s="6">
-        <f>Q69/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="S69">
         <v>4</v>
       </c>
       <c r="T69" s="6">
-        <f>S69/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U69">
         <v>3</v>
       </c>
       <c r="V69">
-        <f>U69/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="W69" s="6">
-        <f>R69/(T69+V69)</f>
+        <f t="shared" si="29"/>
         <v>0.92105263157894746</v>
       </c>
     </row>
@@ -5664,19 +5664,19 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1">
-        <f>(B70+C70)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2">
-        <f>(E70+F70)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3">
-        <f>(H70+I70)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K70" s="4">
@@ -5686,39 +5686,39 @@
         <v>7</v>
       </c>
       <c r="M70" s="4">
-        <f>K70+L70</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="5">
-        <f>(N70+O70)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q70">
-        <f>D70+G70+J70+M70+P70</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="R70" s="6">
-        <f>Q70/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="S70">
         <v>4</v>
       </c>
       <c r="T70" s="6">
-        <f>S70/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U70">
         <v>3</v>
       </c>
       <c r="V70">
-        <f>U70/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="W70" s="6">
-        <f>R70/(T70+V70)</f>
+        <f t="shared" si="29"/>
         <v>0.92105263157894746</v>
       </c>
     </row>
@@ -5729,19 +5729,19 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1">
-        <f>(B71+C71)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2">
-        <f>(E71+F71)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3">
-        <f>(H71+I71)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K71" s="4">
@@ -5751,39 +5751,39 @@
         <v>7</v>
       </c>
       <c r="M71" s="4">
-        <f>K71+L71</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="5">
-        <f>(N71+O71)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q71">
-        <f>D71+G71+J71+M71+P71</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="R71" s="6">
-        <f>Q71/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="S71">
         <v>4</v>
       </c>
       <c r="T71" s="6">
-        <f>S71/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U71">
         <v>3</v>
       </c>
       <c r="V71">
-        <f>U71/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="W71" s="6">
-        <f>R71/(T71+V71)</f>
+        <f t="shared" si="29"/>
         <v>0.92105263157894746</v>
       </c>
     </row>
@@ -5794,19 +5794,19 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1">
-        <f>(B72+C72)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2">
-        <f>(E72+F72)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3">
-        <f>(H72+I72)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K72" s="4">
@@ -5816,39 +5816,39 @@
         <v>7</v>
       </c>
       <c r="M72" s="4">
-        <f>K72+L72</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5">
-        <f>(N72+O72)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q72">
-        <f>D72+G72+J72+M72+P72</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="R72" s="6">
-        <f>Q72/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="S72">
         <v>4</v>
       </c>
       <c r="T72" s="6">
-        <f>S72/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U72">
         <v>3</v>
       </c>
       <c r="V72">
-        <f>U72/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="W72" s="6">
-        <f>R72/(T72+V72)</f>
+        <f t="shared" si="29"/>
         <v>0.92105263157894746</v>
       </c>
     </row>
@@ -5859,19 +5859,19 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1">
-        <f>(B73+C73)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2">
-        <f>(E73+F73)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3">
-        <f>(H73+I73)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K73" s="4">
@@ -5881,39 +5881,39 @@
         <v>7</v>
       </c>
       <c r="M73" s="4">
-        <f>K73+L73</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="5">
-        <f>(N73+O73)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q73">
-        <f>D73+G73+J73+M73+P73</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="R73" s="6">
-        <f>Q73/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="S73">
         <v>4</v>
       </c>
       <c r="T73" s="6">
-        <f>S73/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U73">
         <v>3</v>
       </c>
       <c r="V73">
-        <f>U73/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="W73" s="6">
-        <f>R73/(T73+V73)</f>
+        <f t="shared" si="29"/>
         <v>0.92105263157894746</v>
       </c>
     </row>
@@ -5924,19 +5924,19 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1">
-        <f>(B74+C74)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2">
-        <f>(E74+F74)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3">
-        <f>(H74+I74)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K74" s="4">
@@ -5946,39 +5946,39 @@
         <v>9</v>
       </c>
       <c r="M74" s="4">
-        <f>K74+L74</f>
+        <f t="shared" si="23"/>
         <v>18</v>
       </c>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5">
-        <f>(N74+O74)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q74">
-        <f>D74+G74+J74+M74+P74</f>
+        <f t="shared" si="25"/>
         <v>18</v>
       </c>
       <c r="R74" s="6">
-        <f>Q74/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1.5</v>
       </c>
       <c r="S74">
         <v>5</v>
       </c>
       <c r="T74" s="6">
-        <f>S74/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U74">
         <v>4</v>
       </c>
       <c r="V74">
-        <f>U74/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.8</v>
       </c>
       <c r="W74" s="6">
-        <f>R74/(T74+V74)</f>
+        <f t="shared" si="29"/>
         <v>0.91836734693877553</v>
       </c>
     </row>
@@ -5993,57 +5993,57 @@
         <v>8</v>
       </c>
       <c r="D75" s="1">
-        <f>(B75+C75)*1.5</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2">
-        <f>(E75+F75)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3">
-        <f>(H75+I75)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4">
-        <f>K75+L75</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5">
-        <f>(N75+O75)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q75">
-        <f>D75+G75+J75+M75+P75</f>
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="R75" s="6">
-        <f>Q75/Q$118</f>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="S75">
         <v>7</v>
       </c>
       <c r="T75" s="6">
-        <f>S75/S$118</f>
+        <f t="shared" si="27"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="U75">
         <v>6</v>
       </c>
       <c r="V75">
-        <f>U75/U$118</f>
+        <f t="shared" si="28"/>
         <v>1.2</v>
       </c>
       <c r="W75" s="6">
-        <f>R75/(T75+V75)</f>
+        <f t="shared" si="29"/>
         <v>0.84507042253521125</v>
       </c>
     </row>
@@ -6058,57 +6058,57 @@
         <v>8</v>
       </c>
       <c r="D76" s="1">
-        <f>(B76+C76)*1.5</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2">
-        <f>(E76+F76)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3">
-        <f>(H76+I76)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4">
-        <f>K76+L76</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="5">
-        <f>(N76+O76)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q76">
-        <f>D76+G76+J76+M76+P76</f>
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="R76" s="6">
-        <f>Q76/Q$118</f>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="S76">
         <v>7</v>
       </c>
       <c r="T76" s="6">
-        <f>S76/S$118</f>
+        <f t="shared" si="27"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="U76">
         <v>6</v>
       </c>
       <c r="V76">
-        <f>U76/U$118</f>
+        <f t="shared" si="28"/>
         <v>1.2</v>
       </c>
       <c r="W76" s="6">
-        <f>R76/(T76+V76)</f>
+        <f t="shared" si="29"/>
         <v>0.84507042253521125</v>
       </c>
     </row>
@@ -6123,57 +6123,57 @@
         <v>8</v>
       </c>
       <c r="D77" s="1">
-        <f>(B77+C77)*1.5</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2">
-        <f>(E77+F77)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3">
-        <f>(H77+I77)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4">
-        <f>K77+L77</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="5">
-        <f>(N77+O77)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q77">
-        <f>D77+G77+J77+M77+P77</f>
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="R77" s="6">
-        <f>Q77/Q$118</f>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="S77">
         <v>7</v>
       </c>
       <c r="T77" s="6">
-        <f>S77/S$118</f>
+        <f t="shared" si="27"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="U77">
         <v>6</v>
       </c>
       <c r="V77">
-        <f>U77/U$118</f>
+        <f t="shared" si="28"/>
         <v>1.2</v>
       </c>
       <c r="W77" s="6">
-        <f>R77/(T77+V77)</f>
+        <f t="shared" si="29"/>
         <v>0.84507042253521125</v>
       </c>
     </row>
@@ -6184,19 +6184,19 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1">
-        <f>(B78+C78)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2">
-        <f>(E78+F78)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3">
-        <f>(H78+I78)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K78" s="4">
@@ -6206,39 +6206,39 @@
         <v>8</v>
       </c>
       <c r="M78" s="4">
-        <f>K78+L78</f>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="5">
-        <f>(N78+O78)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q78">
-        <f>D78+G78+J78+M78+P78</f>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="R78" s="6">
-        <f>Q78/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="S78">
         <v>5</v>
       </c>
       <c r="T78" s="6">
-        <f>S78/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U78">
         <v>4</v>
       </c>
       <c r="V78">
-        <f>U78/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.8</v>
       </c>
       <c r="W78" s="6">
-        <f>R78/(T78+V78)</f>
+        <f t="shared" si="29"/>
         <v>0.81632653061224492</v>
       </c>
     </row>
@@ -6249,19 +6249,19 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1">
-        <f>(B79+C79)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2">
-        <f>(E79+F79)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3">
-        <f>(H79+I79)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K79" s="4">
@@ -6271,39 +6271,39 @@
         <v>8</v>
       </c>
       <c r="M79" s="4">
-        <f>K79+L79</f>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="5">
-        <f>(N79+O79)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q79">
-        <f>D79+G79+J79+M79+P79</f>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="R79" s="6">
-        <f>Q79/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="S79">
         <v>5</v>
       </c>
       <c r="T79" s="6">
-        <f>S79/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U79">
         <v>4</v>
       </c>
       <c r="V79">
-        <f>U79/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.8</v>
       </c>
       <c r="W79" s="6">
-        <f>R79/(T79+V79)</f>
+        <f t="shared" si="29"/>
         <v>0.81632653061224492</v>
       </c>
     </row>
@@ -6314,19 +6314,19 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1">
-        <f>(B80+C80)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2">
-        <f>(E80+F80)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3">
-        <f>(H80+I80)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K80" s="4">
@@ -6336,39 +6336,39 @@
         <v>8</v>
       </c>
       <c r="M80" s="4">
-        <f>K80+L80</f>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="5">
-        <f>(N80+O80)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q80">
-        <f>D80+G80+J80+M80+P80</f>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="R80" s="6">
-        <f>Q80/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="S80">
         <v>5</v>
       </c>
       <c r="T80" s="6">
-        <f>S80/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U80">
         <v>4</v>
       </c>
       <c r="V80">
-        <f>U80/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.8</v>
       </c>
       <c r="W80" s="6">
-        <f>R80/(T80+V80)</f>
+        <f t="shared" si="29"/>
         <v>0.81632653061224492</v>
       </c>
     </row>
@@ -6383,57 +6383,57 @@
         <v>7</v>
       </c>
       <c r="D81" s="1">
-        <f>(B81+C81)*1.5</f>
+        <f t="shared" si="20"/>
         <v>22.5</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2">
-        <f>(E81+F81)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3">
-        <f>(H81+I81)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4">
-        <f>K81+L81</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="5">
-        <f>(N81+O81)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q81">
-        <f>D81+G81+J81+M81+P81</f>
+        <f t="shared" si="25"/>
         <v>22.5</v>
       </c>
       <c r="R81" s="6">
-        <f>Q81/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1.875</v>
       </c>
       <c r="S81">
         <v>7</v>
       </c>
       <c r="T81" s="6">
-        <f>S81/S$118</f>
+        <f t="shared" si="27"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="U81">
         <v>6</v>
       </c>
       <c r="V81">
-        <f>U81/U$118</f>
+        <f t="shared" si="28"/>
         <v>1.2</v>
       </c>
       <c r="W81" s="6">
-        <f>R81/(T81+V81)</f>
+        <f t="shared" si="29"/>
         <v>0.79225352112676051</v>
       </c>
     </row>
@@ -6444,19 +6444,19 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1">
-        <f>(B82+C82)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2">
-        <f>(E82+F82)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3">
-        <f>(H82+I82)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K82" s="4">
@@ -6466,39 +6466,39 @@
         <v>6</v>
       </c>
       <c r="M82" s="4">
-        <f>K82+L82</f>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="5">
-        <f>(N82+O82)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q82">
-        <f>D82+G82+J82+M82+P82</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="R82" s="6">
-        <f>Q82/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="S82">
         <v>4</v>
       </c>
       <c r="T82" s="6">
-        <f>S82/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U82">
         <v>3</v>
       </c>
       <c r="V82">
-        <f>U82/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="W82" s="6">
-        <f>R82/(T82+V82)</f>
+        <f t="shared" si="29"/>
         <v>0.78947368421052633</v>
       </c>
     </row>
@@ -6509,19 +6509,19 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1">
-        <f>(B83+C83)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2">
-        <f>(E83+F83)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3">
-        <f>(H83+I83)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K83" s="4">
@@ -6531,39 +6531,39 @@
         <v>6</v>
       </c>
       <c r="M83" s="4">
-        <f>K83+L83</f>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="5">
-        <f>(N83+O83)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q83">
-        <f>D83+G83+J83+M83+P83</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="R83" s="6">
-        <f>Q83/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="S83">
         <v>4</v>
       </c>
       <c r="T83" s="6">
-        <f>S83/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U83">
         <v>3</v>
       </c>
       <c r="V83">
-        <f>U83/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="W83" s="6">
-        <f>R83/(T83+V83)</f>
+        <f t="shared" si="29"/>
         <v>0.78947368421052633</v>
       </c>
     </row>
@@ -6574,19 +6574,19 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1">
-        <f>(B84+C84)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2">
-        <f>(E84+F84)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3">
-        <f>(H84+I84)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K84" s="4">
@@ -6596,39 +6596,39 @@
         <v>6</v>
       </c>
       <c r="M84" s="4">
-        <f>K84+L84</f>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="5">
-        <f>(N84+O84)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q84">
-        <f>D84+G84+J84+M84+P84</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="R84" s="6">
-        <f>Q84/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="S84">
         <v>4</v>
       </c>
       <c r="T84" s="6">
-        <f>S84/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U84">
         <v>3</v>
       </c>
       <c r="V84">
-        <f>U84/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="W84" s="6">
-        <f>R84/(T84+V84)</f>
+        <f t="shared" si="29"/>
         <v>0.78947368421052633</v>
       </c>
     </row>
@@ -6639,19 +6639,19 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1">
-        <f>(B85+C85)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2">
-        <f>(E85+F85)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3">
-        <f>(H85+I85)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K85" s="4">
@@ -6661,39 +6661,39 @@
         <v>6</v>
       </c>
       <c r="M85" s="4">
-        <f>K85+L85</f>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="5">
-        <f>(N85+O85)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q85">
-        <f>D85+G85+J85+M85+P85</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="R85" s="6">
-        <f>Q85/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="S85">
         <v>4</v>
       </c>
       <c r="T85" s="6">
-        <f>S85/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U85">
         <v>3</v>
       </c>
       <c r="V85">
-        <f>U85/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="W85" s="6">
-        <f>R85/(T85+V85)</f>
+        <f t="shared" si="29"/>
         <v>0.78947368421052633</v>
       </c>
     </row>
@@ -6704,19 +6704,19 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1">
-        <f>(B86+C86)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2">
-        <f>(E86+F86)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3">
-        <f>(H86+I86)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K86" s="4">
@@ -6726,39 +6726,39 @@
         <v>6</v>
       </c>
       <c r="M86" s="4">
-        <f>K86+L86</f>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="5">
-        <f>(N86+O86)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q86">
-        <f>D86+G86+J86+M86+P86</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="R86" s="6">
-        <f>Q86/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="S86">
         <v>4</v>
       </c>
       <c r="T86" s="6">
-        <f>S86/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U86">
         <v>3</v>
       </c>
       <c r="V86">
-        <f>U86/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="W86" s="6">
-        <f>R86/(T86+V86)</f>
+        <f t="shared" si="29"/>
         <v>0.78947368421052633</v>
       </c>
     </row>
@@ -6769,19 +6769,19 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1">
-        <f>(B87+C87)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2">
-        <f>(E87+F87)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3">
-        <f>(H87+I87)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K87" s="4">
@@ -6791,39 +6791,39 @@
         <v>6</v>
       </c>
       <c r="M87" s="4">
-        <f>K87+L87</f>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="5">
-        <f>(N87+O87)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q87">
-        <f>D87+G87+J87+M87+P87</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="R87" s="6">
-        <f>Q87/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="S87">
         <v>4</v>
       </c>
       <c r="T87" s="6">
-        <f>S87/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U87">
         <v>3</v>
       </c>
       <c r="V87">
-        <f>U87/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="W87" s="6">
-        <f>R87/(T87+V87)</f>
+        <f t="shared" si="29"/>
         <v>0.78947368421052633</v>
       </c>
     </row>
@@ -6834,19 +6834,19 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1">
-        <f>(B88+C88)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2">
-        <f>(E88+F88)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3">
-        <f>(H88+I88)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K88" s="4">
@@ -6856,39 +6856,39 @@
         <v>6</v>
       </c>
       <c r="M88" s="4">
-        <f>K88+L88</f>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="5">
-        <f>(N88+O88)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q88">
-        <f>D88+G88+J88+M88+P88</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="R88" s="6">
-        <f>Q88/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="S88">
         <v>4</v>
       </c>
       <c r="T88" s="6">
-        <f>S88/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U88">
         <v>3</v>
       </c>
       <c r="V88">
-        <f>U88/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="W88" s="6">
-        <f>R88/(T88+V88)</f>
+        <f t="shared" si="29"/>
         <v>0.78947368421052633</v>
       </c>
     </row>
@@ -6899,19 +6899,19 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1">
-        <f>(B89+C89)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2">
-        <f>(E89+F89)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3">
-        <f>(H89+I89)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K89" s="4">
@@ -6921,39 +6921,39 @@
         <v>6</v>
       </c>
       <c r="M89" s="4">
-        <f>K89+L89</f>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="5">
-        <f>(N89+O89)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q89">
-        <f>D89+G89+J89+M89+P89</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="R89" s="6">
-        <f>Q89/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="S89">
         <v>4</v>
       </c>
       <c r="T89" s="6">
-        <f>S89/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U89">
         <v>3</v>
       </c>
       <c r="V89">
-        <f>U89/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="W89" s="6">
-        <f>R89/(T89+V89)</f>
+        <f t="shared" si="29"/>
         <v>0.78947368421052633</v>
       </c>
     </row>
@@ -6964,19 +6964,19 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1">
-        <f>(B90+C90)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2">
-        <f>(E90+F90)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3">
-        <f>(H90+I90)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K90" s="4">
@@ -6986,39 +6986,39 @@
         <v>6</v>
       </c>
       <c r="M90" s="4">
-        <f>K90+L90</f>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="5">
-        <f>(N90+O90)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q90">
-        <f>D90+G90+J90+M90+P90</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="R90" s="6">
-        <f>Q90/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="S90">
         <v>4</v>
       </c>
       <c r="T90" s="6">
-        <f>S90/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U90">
         <v>3</v>
       </c>
       <c r="V90">
-        <f>U90/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="W90" s="6">
-        <f>R90/(T90+V90)</f>
+        <f t="shared" si="29"/>
         <v>0.78947368421052633</v>
       </c>
     </row>
@@ -7029,19 +7029,19 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1">
-        <f>(B91+C91)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2">
-        <f>(E91+F91)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3">
-        <f>(H91+I91)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K91" s="4">
@@ -7051,39 +7051,39 @@
         <v>6</v>
       </c>
       <c r="M91" s="4">
-        <f>K91+L91</f>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="5">
-        <f>(N91+O91)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q91">
-        <f>D91+G91+J91+M91+P91</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="R91" s="6">
-        <f>Q91/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="S91">
         <v>4</v>
       </c>
       <c r="T91" s="6">
-        <f>S91/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U91">
         <v>3</v>
       </c>
       <c r="V91">
-        <f>U91/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="W91" s="6">
-        <f>R91/(T91+V91)</f>
+        <f t="shared" si="29"/>
         <v>0.78947368421052633</v>
       </c>
     </row>
@@ -7094,19 +7094,19 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1">
-        <f>(B92+C92)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2">
-        <f>(E92+F92)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3">
-        <f>(H92+I92)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K92" s="4">
@@ -7116,39 +7116,39 @@
         <v>6</v>
       </c>
       <c r="M92" s="4">
-        <f>K92+L92</f>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="5">
-        <f>(N92+O92)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q92">
-        <f>D92+G92+J92+M92+P92</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="R92" s="6">
-        <f>Q92/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="S92">
         <v>4</v>
       </c>
       <c r="T92" s="6">
-        <f>S92/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U92">
         <v>3</v>
       </c>
       <c r="V92">
-        <f>U92/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="W92" s="6">
-        <f>R92/(T92+V92)</f>
+        <f t="shared" si="29"/>
         <v>0.78947368421052633</v>
       </c>
     </row>
@@ -7159,19 +7159,19 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1">
-        <f>(B93+C93)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2">
-        <f>(E93+F93)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3">
-        <f>(H93+I93)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K93" s="4">
@@ -7181,39 +7181,39 @@
         <v>7</v>
       </c>
       <c r="M93" s="4">
-        <f>K93+L93</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="5">
-        <f>(N93+O93)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q93">
-        <f>D93+G93+J93+M93+P93</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="R93" s="6">
-        <f>Q93/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="S93">
         <v>5</v>
       </c>
       <c r="T93" s="6">
-        <f>S93/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U93">
         <v>4</v>
       </c>
       <c r="V93">
-        <f>U93/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.8</v>
       </c>
       <c r="W93" s="6">
-        <f>R93/(T93+V93)</f>
+        <f t="shared" si="29"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -7224,19 +7224,19 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1">
-        <f>(B94+C94)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2">
-        <f>(E94+F94)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3">
-        <f>(H94+I94)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K94" s="4">
@@ -7246,39 +7246,39 @@
         <v>7</v>
       </c>
       <c r="M94" s="4">
-        <f>K94+L94</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
       <c r="P94" s="5">
-        <f>(N94+O94)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q94">
-        <f>D94+G94+J94+M94+P94</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="R94" s="6">
-        <f>Q94/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="S94">
         <v>5</v>
       </c>
       <c r="T94" s="6">
-        <f>S94/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U94">
         <v>4</v>
       </c>
       <c r="V94">
-        <f>U94/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.8</v>
       </c>
       <c r="W94" s="6">
-        <f>R94/(T94+V94)</f>
+        <f t="shared" si="29"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -7289,19 +7289,19 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1">
-        <f>(B95+C95)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2">
-        <f>(E95+F95)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3">
-        <f>(H95+I95)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K95" s="4">
@@ -7311,39 +7311,39 @@
         <v>7</v>
       </c>
       <c r="M95" s="4">
-        <f>K95+L95</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="5">
-        <f>(N95+O95)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q95">
-        <f>D95+G95+J95+M95+P95</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="R95" s="6">
-        <f>Q95/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="S95">
         <v>5</v>
       </c>
       <c r="T95" s="6">
-        <f>S95/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U95">
         <v>4</v>
       </c>
       <c r="V95">
-        <f>U95/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.8</v>
       </c>
       <c r="W95" s="6">
-        <f>R95/(T95+V95)</f>
+        <f t="shared" si="29"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -7354,19 +7354,19 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1">
-        <f>(B96+C96)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2">
-        <f>(E96+F96)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3">
-        <f>(H96+I96)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K96" s="4">
@@ -7376,39 +7376,39 @@
         <v>7</v>
       </c>
       <c r="M96" s="4">
-        <f>K96+L96</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
       <c r="P96" s="5">
-        <f>(N96+O96)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q96">
-        <f>D96+G96+J96+M96+P96</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="R96" s="6">
-        <f>Q96/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="S96">
         <v>5</v>
       </c>
       <c r="T96" s="6">
-        <f>S96/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U96">
         <v>4</v>
       </c>
       <c r="V96">
-        <f>U96/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.8</v>
       </c>
       <c r="W96" s="6">
-        <f>R96/(T96+V96)</f>
+        <f t="shared" si="29"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -7419,19 +7419,19 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1">
-        <f>(B97+C97)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2">
-        <f>(E97+F97)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3">
-        <f>(H97+I97)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K97" s="4">
@@ -7441,39 +7441,39 @@
         <v>7</v>
       </c>
       <c r="M97" s="4">
-        <f>K97+L97</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="P97" s="5">
-        <f>(N97+O97)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q97">
-        <f>D97+G97+J97+M97+P97</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="R97" s="6">
-        <f>Q97/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="S97">
         <v>5</v>
       </c>
       <c r="T97" s="6">
-        <f>S97/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U97">
         <v>4</v>
       </c>
       <c r="V97">
-        <f>U97/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.8</v>
       </c>
       <c r="W97" s="6">
-        <f>R97/(T97+V97)</f>
+        <f t="shared" si="29"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -7484,19 +7484,19 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1">
-        <f>(B98+C98)*1.5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2">
-        <f>(E98+F98)*1.1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3">
-        <f>(H98+I98)*1.2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K98" s="4">
@@ -7506,39 +7506,39 @@
         <v>7</v>
       </c>
       <c r="M98" s="4">
-        <f>K98+L98</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="5">
-        <f>(N98+O98)*0.5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q98">
-        <f>D98+G98+J98+M98+P98</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="R98" s="6">
-        <f>Q98/Q$118</f>
+        <f t="shared" si="26"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="S98">
         <v>5</v>
       </c>
       <c r="T98" s="6">
-        <f>S98/S$118</f>
+        <f t="shared" si="27"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U98">
         <v>4</v>
       </c>
       <c r="V98">
-        <f>U98/U$118</f>
+        <f t="shared" si="28"/>
         <v>0.8</v>
       </c>
       <c r="W98" s="6">
-        <f>R98/(T98+V98)</f>
+        <f t="shared" si="29"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -7549,13 +7549,13 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1">
-        <f>(B99+C99)*1.5</f>
+        <f t="shared" ref="D99:D130" si="30">(B99+C99)*1.5</f>
         <v>0</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2">
-        <f>(E99+F99)*1.1</f>
+        <f t="shared" ref="G99:G130" si="31">(E99+F99)*1.1</f>
         <v>0</v>
       </c>
       <c r="H99" s="3">
@@ -7565,45 +7565,45 @@
         <v>4</v>
       </c>
       <c r="J99" s="3">
-        <f>(H99+I99)*1.2</f>
+        <f t="shared" ref="J99:J130" si="32">(H99+I99)*1.2</f>
         <v>10.799999999999999</v>
       </c>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4">
-        <f>K99+L99</f>
+        <f t="shared" ref="M99:M130" si="33">K99+L99</f>
         <v>0</v>
       </c>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="5">
-        <f>(N99+O99)*0.5</f>
+        <f t="shared" ref="P99:P130" si="34">(N99+O99)*0.5</f>
         <v>0</v>
       </c>
       <c r="Q99">
-        <f>D99+G99+J99+M99+P99</f>
+        <f t="shared" ref="Q99:Q130" si="35">D99+G99+J99+M99+P99</f>
         <v>10.799999999999999</v>
       </c>
       <c r="R99" s="6">
-        <f>Q99/Q$118</f>
+        <f t="shared" ref="R99:R130" si="36">Q99/Q$118</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="S99">
         <v>4</v>
       </c>
       <c r="T99" s="6">
-        <f>S99/S$118</f>
+        <f t="shared" ref="T99:T130" si="37">S99/S$118</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="U99">
         <v>3</v>
       </c>
       <c r="V99">
-        <f>U99/U$118</f>
+        <f t="shared" ref="V99:V130" si="38">U99/U$118</f>
         <v>0.6</v>
       </c>
       <c r="W99" s="6">
-        <f>R99/(T99+V99)</f>
+        <f t="shared" ref="W99:W130" si="39">R99/(T99+V99)</f>
         <v>0.71052631578947367</v>
       </c>
     </row>
@@ -7614,13 +7614,13 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1">
-        <f>(B100+C100)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2">
-        <f>(E100+F100)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H100" s="3">
@@ -7630,45 +7630,45 @@
         <v>4</v>
       </c>
       <c r="J100" s="3">
-        <f>(H100+I100)*1.2</f>
+        <f t="shared" si="32"/>
         <v>10.799999999999999</v>
       </c>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4">
-        <f>K100+L100</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="5">
-        <f>(N100+O100)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q100">
-        <f>D100+G100+J100+M100+P100</f>
+        <f t="shared" si="35"/>
         <v>10.799999999999999</v>
       </c>
       <c r="R100" s="6">
-        <f>Q100/Q$118</f>
+        <f t="shared" si="36"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="S100">
         <v>4</v>
       </c>
       <c r="T100" s="6">
-        <f>S100/S$118</f>
+        <f t="shared" si="37"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U100">
         <v>3</v>
       </c>
       <c r="V100">
-        <f>U100/U$118</f>
+        <f t="shared" si="38"/>
         <v>0.6</v>
       </c>
       <c r="W100" s="6">
-        <f>R100/(T100+V100)</f>
+        <f t="shared" si="39"/>
         <v>0.71052631578947367</v>
       </c>
     </row>
@@ -7679,13 +7679,13 @@
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1">
-        <f>(B101+C101)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2">
-        <f>(E101+F101)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H101" s="3">
@@ -7695,45 +7695,45 @@
         <v>4</v>
       </c>
       <c r="J101" s="3">
-        <f>(H101+I101)*1.2</f>
+        <f t="shared" si="32"/>
         <v>10.799999999999999</v>
       </c>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4">
-        <f>K101+L101</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="5">
-        <f>(N101+O101)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q101">
-        <f>D101+G101+J101+M101+P101</f>
+        <f t="shared" si="35"/>
         <v>10.799999999999999</v>
       </c>
       <c r="R101" s="6">
-        <f>Q101/Q$118</f>
+        <f t="shared" si="36"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="S101">
         <v>4</v>
       </c>
       <c r="T101" s="6">
-        <f>S101/S$118</f>
+        <f t="shared" si="37"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U101">
         <v>3</v>
       </c>
       <c r="V101">
-        <f>U101/U$118</f>
+        <f t="shared" si="38"/>
         <v>0.6</v>
       </c>
       <c r="W101" s="6">
-        <f>R101/(T101+V101)</f>
+        <f t="shared" si="39"/>
         <v>0.71052631578947367</v>
       </c>
     </row>
@@ -7748,57 +7748,57 @@
         <v>7</v>
       </c>
       <c r="D102" s="1">
-        <f>(B102+C102)*1.5</f>
+        <f t="shared" si="30"/>
         <v>19.5</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2">
-        <f>(E102+F102)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3">
-        <f>(H102+I102)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4">
-        <f>K102+L102</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="5">
-        <f>(N102+O102)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q102">
-        <f>D102+G102+J102+M102+P102</f>
+        <f t="shared" si="35"/>
         <v>19.5</v>
       </c>
       <c r="R102" s="6">
-        <f>Q102/Q$118</f>
+        <f t="shared" si="36"/>
         <v>1.625</v>
       </c>
       <c r="S102">
         <v>7</v>
       </c>
       <c r="T102" s="6">
-        <f>S102/S$118</f>
+        <f t="shared" si="37"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="U102">
         <v>6</v>
       </c>
       <c r="V102">
-        <f>U102/U$118</f>
+        <f t="shared" si="38"/>
         <v>1.2</v>
       </c>
       <c r="W102" s="6">
-        <f>R102/(T102+V102)</f>
+        <f t="shared" si="39"/>
         <v>0.68661971830985913</v>
       </c>
     </row>
@@ -7809,19 +7809,19 @@
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1">
-        <f>(B103+C103)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2">
-        <f>(E103+F103)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3">
-        <f>(H103+I103)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K103" s="4">
@@ -7831,39 +7831,39 @@
         <v>8</v>
       </c>
       <c r="M103" s="4">
-        <f>K103+L103</f>
+        <f t="shared" si="33"/>
         <v>16</v>
       </c>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
       <c r="P103" s="5">
-        <f>(N103+O103)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q103">
-        <f>D103+G103+J103+M103+P103</f>
+        <f t="shared" si="35"/>
         <v>16</v>
       </c>
       <c r="R103" s="6">
-        <f>Q103/Q$118</f>
+        <f t="shared" si="36"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="S103">
         <v>6</v>
       </c>
       <c r="T103" s="6">
-        <f>S103/S$118</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="U103">
         <v>5</v>
       </c>
       <c r="V103">
-        <f>U103/U$118</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="W103" s="6">
-        <f>R103/(T103+V103)</f>
+        <f t="shared" si="39"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -7874,19 +7874,19 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1">
-        <f>(B104+C104)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2">
-        <f>(E104+F104)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3">
-        <f>(H104+I104)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K104" s="4">
@@ -7896,39 +7896,39 @@
         <v>5</v>
       </c>
       <c r="M104" s="4">
-        <f>K104+L104</f>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="5">
-        <f>(N104+O104)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q104">
-        <f>D104+G104+J104+M104+P104</f>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="R104" s="6">
-        <f>Q104/Q$118</f>
+        <f t="shared" si="36"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="S104">
         <v>4</v>
       </c>
       <c r="T104" s="6">
-        <f>S104/S$118</f>
+        <f t="shared" si="37"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U104">
         <v>3</v>
       </c>
       <c r="V104">
-        <f>U104/U$118</f>
+        <f t="shared" si="38"/>
         <v>0.6</v>
       </c>
       <c r="W104" s="6">
-        <f>R104/(T104+V104)</f>
+        <f t="shared" si="39"/>
         <v>0.65789473684210531</v>
       </c>
     </row>
@@ -7939,13 +7939,13 @@
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1">
-        <f>(B105+C105)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2">
-        <f>(E105+F105)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H105" s="3">
@@ -7955,45 +7955,45 @@
         <v>7</v>
       </c>
       <c r="J105" s="3">
-        <f>(H105+I105)*1.2</f>
+        <f t="shared" si="32"/>
         <v>15.6</v>
       </c>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4">
-        <f>K105+L105</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
       <c r="P105" s="5">
-        <f>(N105+O105)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q105">
-        <f>D105+G105+J105+M105+P105</f>
+        <f t="shared" si="35"/>
         <v>15.6</v>
       </c>
       <c r="R105" s="6">
-        <f>Q105/Q$118</f>
+        <f t="shared" si="36"/>
         <v>1.3</v>
       </c>
       <c r="S105">
         <v>6</v>
       </c>
       <c r="T105" s="6">
-        <f>S105/S$118</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="U105">
         <v>5</v>
       </c>
       <c r="V105">
-        <f>U105/U$118</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="W105" s="6">
-        <f>R105/(T105+V105)</f>
+        <f t="shared" si="39"/>
         <v>0.65</v>
       </c>
     </row>
@@ -8004,13 +8004,13 @@
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1">
-        <f>(B106+C106)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2">
-        <f>(E106+F106)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H106" s="3">
@@ -8020,45 +8020,45 @@
         <v>6</v>
       </c>
       <c r="J106" s="3">
-        <f>(H106+I106)*1.2</f>
+        <f t="shared" si="32"/>
         <v>14.399999999999999</v>
       </c>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
       <c r="M106" s="4">
-        <f>K106+L106</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
       <c r="P106" s="5">
-        <f>(N106+O106)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q106">
-        <f>D106+G106+J106+M106+P106</f>
+        <f t="shared" si="35"/>
         <v>14.399999999999999</v>
       </c>
       <c r="R106" s="6">
-        <f>Q106/Q$118</f>
+        <f t="shared" si="36"/>
         <v>1.2</v>
       </c>
       <c r="S106">
         <v>6</v>
       </c>
       <c r="T106" s="6">
-        <f>S106/S$118</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="U106">
         <v>5</v>
       </c>
       <c r="V106">
-        <f>U106/U$118</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="W106" s="6">
-        <f>R106/(T106+V106)</f>
+        <f t="shared" si="39"/>
         <v>0.6</v>
       </c>
     </row>
@@ -8069,19 +8069,19 @@
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1">
-        <f>(B107+C107)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2">
-        <f>(E107+F107)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3">
-        <f>(H107+I107)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K107" s="4">
@@ -8091,39 +8091,39 @@
         <v>7</v>
       </c>
       <c r="M107" s="4">
-        <f>K107+L107</f>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
       <c r="P107" s="5">
-        <f>(N107+O107)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q107">
-        <f>D107+G107+J107+M107+P107</f>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="R107" s="6">
-        <f>Q107/Q$118</f>
+        <f t="shared" si="36"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="S107">
         <v>6</v>
       </c>
       <c r="T107" s="6">
-        <f>S107/S$118</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="U107">
         <v>5</v>
       </c>
       <c r="V107">
-        <f>U107/U$118</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="W107" s="6">
-        <f>R107/(T107+V107)</f>
+        <f t="shared" si="39"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -8134,19 +8134,19 @@
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1">
-        <f>(B108+C108)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2">
-        <f>(E108+F108)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3">
-        <f>(H108+I108)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K108" s="4">
@@ -8156,39 +8156,39 @@
         <v>7</v>
       </c>
       <c r="M108" s="4">
-        <f>K108+L108</f>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="P108" s="5">
-        <f>(N108+O108)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q108">
-        <f>D108+G108+J108+M108+P108</f>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="R108" s="6">
-        <f>Q108/Q$118</f>
+        <f t="shared" si="36"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="S108">
         <v>6</v>
       </c>
       <c r="T108" s="6">
-        <f>S108/S$118</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="U108">
         <v>5</v>
       </c>
       <c r="V108">
-        <f>U108/U$118</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="W108" s="6">
-        <f>R108/(T108+V108)</f>
+        <f t="shared" si="39"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -8199,19 +8199,19 @@
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1">
-        <f>(B109+C109)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2">
-        <f>(E109+F109)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3">
-        <f>(H109+I109)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K109" s="4">
@@ -8221,39 +8221,39 @@
         <v>7</v>
       </c>
       <c r="M109" s="4">
-        <f>K109+L109</f>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
       <c r="P109" s="5">
-        <f>(N109+O109)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q109">
-        <f>D109+G109+J109+M109+P109</f>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="R109" s="6">
-        <f>Q109/Q$118</f>
+        <f t="shared" si="36"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="S109">
         <v>6</v>
       </c>
       <c r="T109" s="6">
-        <f>S109/S$118</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="U109">
         <v>5</v>
       </c>
       <c r="V109">
-        <f>U109/U$118</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="W109" s="6">
-        <f>R109/(T109+V109)</f>
+        <f t="shared" si="39"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -8264,19 +8264,19 @@
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1">
-        <f>(B110+C110)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2">
-        <f>(E110+F110)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3">
-        <f>(H110+I110)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K110" s="4">
@@ -8286,39 +8286,39 @@
         <v>7</v>
       </c>
       <c r="M110" s="4">
-        <f>K110+L110</f>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="5">
-        <f>(N110+O110)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q110">
-        <f>D110+G110+J110+M110+P110</f>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="R110" s="6">
-        <f>Q110/Q$118</f>
+        <f t="shared" si="36"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="S110">
         <v>6</v>
       </c>
       <c r="T110" s="6">
-        <f>S110/S$118</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="U110">
         <v>5</v>
       </c>
       <c r="V110">
-        <f>U110/U$118</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="W110" s="6">
-        <f>R110/(T110+V110)</f>
+        <f t="shared" si="39"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -8329,19 +8329,19 @@
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1">
-        <f>(B111+C111)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2">
-        <f>(E111+F111)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3">
-        <f>(H111+I111)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K111" s="4">
@@ -8351,39 +8351,39 @@
         <v>7</v>
       </c>
       <c r="M111" s="4">
-        <f>K111+L111</f>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
       <c r="P111" s="5">
-        <f>(N111+O111)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q111">
-        <f>D111+G111+J111+M111+P111</f>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="R111" s="6">
-        <f>Q111/Q$118</f>
+        <f t="shared" si="36"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="S111">
         <v>6</v>
       </c>
       <c r="T111" s="6">
-        <f>S111/S$118</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="U111">
         <v>5</v>
       </c>
       <c r="V111">
-        <f>U111/U$118</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="W111" s="6">
-        <f>R111/(T111+V111)</f>
+        <f t="shared" si="39"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -8394,19 +8394,19 @@
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1">
-        <f>(B112+C112)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2">
-        <f>(E112+F112)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3">
-        <f>(H112+I112)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K112" s="4">
@@ -8416,39 +8416,39 @@
         <v>6</v>
       </c>
       <c r="M112" s="4">
-        <f>K112+L112</f>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="5">
-        <f>(N112+O112)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q112">
-        <f>D112+G112+J112+M112+P112</f>
+        <f t="shared" si="35"/>
         <v>13</v>
       </c>
       <c r="R112" s="6">
-        <f>Q112/Q$118</f>
+        <f t="shared" si="36"/>
         <v>1.0833333333333333</v>
       </c>
       <c r="S112">
         <v>5</v>
       </c>
       <c r="T112" s="6">
-        <f>S112/S$118</f>
+        <f t="shared" si="37"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U112">
         <v>6</v>
       </c>
       <c r="V112">
-        <f>U112/U$118</f>
+        <f t="shared" si="38"/>
         <v>1.2</v>
       </c>
       <c r="W112" s="6">
-        <f>R112/(T112+V112)</f>
+        <f t="shared" si="39"/>
         <v>0.53278688524590168</v>
       </c>
     </row>
@@ -8459,19 +8459,19 @@
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1">
-        <f>(B113+C113)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2">
-        <f>(E113+F113)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3">
-        <f>(H113+I113)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K113" s="4">
@@ -8481,39 +8481,39 @@
         <v>5</v>
       </c>
       <c r="M113" s="4">
-        <f>K113+L113</f>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="5">
-        <f>(N113+O113)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q113">
-        <f>D113+G113+J113+M113+P113</f>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="R113" s="6">
-        <f>Q113/Q$118</f>
+        <f t="shared" si="36"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="S113">
         <v>5</v>
       </c>
       <c r="T113" s="6">
-        <f>S113/S$118</f>
+        <f t="shared" si="37"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U113">
         <v>4</v>
       </c>
       <c r="V113">
-        <f>U113/U$118</f>
+        <f t="shared" si="38"/>
         <v>0.8</v>
       </c>
       <c r="W113" s="6">
-        <f>R113/(T113+V113)</f>
+        <f t="shared" si="39"/>
         <v>0.51020408163265307</v>
       </c>
     </row>
@@ -8524,19 +8524,19 @@
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1">
-        <f>(B114+C114)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2">
-        <f>(E114+F114)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3">
-        <f>(H114+I114)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K114" s="4">
@@ -8546,39 +8546,39 @@
         <v>6</v>
       </c>
       <c r="M114" s="4">
-        <f>K114+L114</f>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="5">
-        <f>(N114+O114)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q114">
-        <f>D114+G114+J114+M114+P114</f>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="R114" s="6">
-        <f>Q114/Q$118</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="S114">
         <v>6</v>
       </c>
       <c r="T114" s="6">
-        <f>S114/S$118</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="U114">
         <v>5</v>
       </c>
       <c r="V114">
-        <f>U114/U$118</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="W114" s="6">
-        <f>R114/(T114+V114)</f>
+        <f t="shared" si="39"/>
         <v>0.5</v>
       </c>
     </row>
@@ -8589,19 +8589,19 @@
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1">
-        <f>(B115+C115)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2">
-        <f>(E115+F115)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3">
-        <f>(H115+I115)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K115" s="4">
@@ -8611,39 +8611,39 @@
         <v>6</v>
       </c>
       <c r="M115" s="4">
-        <f>K115+L115</f>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="5">
-        <f>(N115+O115)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q115">
-        <f>D115+G115+J115+M115+P115</f>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="R115" s="6">
-        <f>Q115/Q$118</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="S115">
         <v>6</v>
       </c>
       <c r="T115" s="6">
-        <f>S115/S$118</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="U115">
         <v>5</v>
       </c>
       <c r="V115">
-        <f>U115/U$118</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="W115" s="6">
-        <f>R115/(T115+V115)</f>
+        <f t="shared" si="39"/>
         <v>0.5</v>
       </c>
     </row>
@@ -8654,19 +8654,19 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1">
-        <f>(B116+C116)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2">
-        <f>(E116+F116)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3">
-        <f>(H116+I116)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K116" s="4">
@@ -8676,39 +8676,39 @@
         <v>6</v>
       </c>
       <c r="M116" s="4">
-        <f>K116+L116</f>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="5">
-        <f>(N116+O116)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q116">
-        <f>D116+G116+J116+M116+P116</f>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="R116" s="6">
-        <f>Q116/Q$118</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="S116">
         <v>6</v>
       </c>
       <c r="T116" s="6">
-        <f>S116/S$118</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="U116">
         <v>5</v>
       </c>
       <c r="V116">
-        <f>U116/U$118</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="W116" s="6">
-        <f>R116/(T116+V116)</f>
+        <f t="shared" si="39"/>
         <v>0.5</v>
       </c>
     </row>
@@ -8719,19 +8719,19 @@
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1">
-        <f>(B117+C117)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2">
-        <f>(E117+F117)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3">
-        <f>(H117+I117)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K117" s="4">
@@ -8741,39 +8741,39 @@
         <v>6</v>
       </c>
       <c r="M117" s="4">
-        <f>K117+L117</f>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
       <c r="P117" s="5">
-        <f>(N117+O117)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q117">
-        <f>D117+G117+J117+M117+P117</f>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="R117" s="6">
-        <f>Q117/Q$118</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="S117">
         <v>6</v>
       </c>
       <c r="T117" s="6">
-        <f>S117/S$118</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="U117">
         <v>5</v>
       </c>
       <c r="V117">
-        <f>U117/U$118</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="W117" s="6">
-        <f>R117/(T117+V117)</f>
+        <f t="shared" si="39"/>
         <v>0.5</v>
       </c>
     </row>
@@ -8784,19 +8784,19 @@
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1">
-        <f>(B118+C118)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2">
-        <f>(E118+F118)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3">
-        <f>(H118+I118)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K118" s="4">
@@ -8806,39 +8806,39 @@
         <v>6</v>
       </c>
       <c r="M118" s="4">
-        <f>K118+L118</f>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="5">
-        <f>(N118+O118)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q118">
-        <f>D118+G118+J118+M118+P118</f>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="R118" s="6">
-        <f>Q118/Q$118</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="S118">
         <v>6</v>
       </c>
       <c r="T118" s="6">
-        <f>S118/S$118</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="U118">
         <v>5</v>
       </c>
       <c r="V118">
-        <f>U118/U$118</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="W118" s="6">
-        <f>R118/(T118+V118)</f>
+        <f t="shared" si="39"/>
         <v>0.5</v>
       </c>
     </row>
@@ -8849,19 +8849,19 @@
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1">
-        <f>(B119+C119)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2">
-        <f>(E119+F119)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3">
-        <f>(H119+I119)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K119" s="4">
@@ -8871,39 +8871,39 @@
         <v>5</v>
       </c>
       <c r="M119" s="4">
-        <f>K119+L119</f>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="5">
-        <f>(N119+O119)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q119">
-        <f>D119+G119+J119+M119+P119</f>
+        <f t="shared" si="35"/>
         <v>11</v>
       </c>
       <c r="R119" s="6">
-        <f>Q119/Q$118</f>
+        <f t="shared" si="36"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="S119">
         <v>5</v>
       </c>
       <c r="T119" s="6">
-        <f>S119/S$118</f>
+        <f t="shared" si="37"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U119">
         <v>5</v>
       </c>
       <c r="V119">
-        <f>U119/U$118</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="W119" s="6">
-        <f>R119/(T119+V119)</f>
+        <f t="shared" si="39"/>
         <v>0.49999999999999994</v>
       </c>
     </row>
@@ -8914,19 +8914,19 @@
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1">
-        <f>(B120+C120)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2">
-        <f>(E120+F120)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3">
-        <f>(H120+I120)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K120" s="4">
@@ -8936,39 +8936,39 @@
         <v>6</v>
       </c>
       <c r="M120" s="4">
-        <f>K120+L120</f>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="5">
-        <f>(N120+O120)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q120">
-        <f>D120+G120+J120+M120+P120</f>
+        <f t="shared" si="35"/>
         <v>13</v>
       </c>
       <c r="R120" s="6">
-        <f>Q120/Q$118</f>
+        <f t="shared" si="36"/>
         <v>1.0833333333333333</v>
       </c>
       <c r="S120">
         <v>6</v>
       </c>
       <c r="T120" s="6">
-        <f>S120/S$118</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="U120">
         <v>6</v>
       </c>
       <c r="V120">
-        <f>U120/U$118</f>
+        <f t="shared" si="38"/>
         <v>1.2</v>
       </c>
       <c r="W120" s="6">
-        <f>R120/(T120+V120)</f>
+        <f t="shared" si="39"/>
         <v>0.49242424242424238</v>
       </c>
     </row>
@@ -8979,19 +8979,19 @@
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1">
-        <f>(B121+C121)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2">
-        <f>(E121+F121)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3">
-        <f>(H121+I121)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K121" s="4">
@@ -9001,39 +9001,39 @@
         <v>6</v>
       </c>
       <c r="M121" s="4">
-        <f>K121+L121</f>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="5">
-        <f>(N121+O121)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q121">
-        <f>D121+G121+J121+M121+P121</f>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="R121" s="6">
-        <f>Q121/Q$118</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="S121">
         <v>5</v>
       </c>
       <c r="T121" s="6">
-        <f>S121/S$118</f>
+        <f t="shared" si="37"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U121">
         <v>6</v>
       </c>
       <c r="V121">
-        <f>U121/U$118</f>
+        <f t="shared" si="38"/>
         <v>1.2</v>
       </c>
       <c r="W121" s="6">
-        <f>R121/(T121+V121)</f>
+        <f t="shared" si="39"/>
         <v>0.49180327868852464</v>
       </c>
     </row>
@@ -9044,19 +9044,19 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1">
-        <f>(B122+C122)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2">
-        <f>(E122+F122)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3">
-        <f>(H122+I122)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K122" s="4">
@@ -9066,39 +9066,39 @@
         <v>5</v>
       </c>
       <c r="M122" s="4">
-        <f>K122+L122</f>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="5">
-        <f>(N122+O122)*0.5</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q122">
-        <f>D122+G122+J122+M122+P122</f>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="R122" s="6">
-        <f>Q122/Q$118</f>
+        <f t="shared" si="36"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="S122">
         <v>5</v>
       </c>
       <c r="T122" s="6">
-        <f>S122/S$118</f>
+        <f t="shared" si="37"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U122">
         <v>6</v>
       </c>
       <c r="V122">
-        <f>U122/U$118</f>
+        <f t="shared" si="38"/>
         <v>1.2</v>
       </c>
       <c r="W122" s="6">
-        <f>R122/(T122+V122)</f>
+        <f t="shared" si="39"/>
         <v>0.40983606557377056</v>
       </c>
     </row>
@@ -9109,25 +9109,25 @@
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1">
-        <f>(B123+C123)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2">
-        <f>(E123+F123)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3">
-        <f>(H123+I123)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="4">
-        <f>K123+L123</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N123" s="5">
@@ -9137,33 +9137,33 @@
         <v>8</v>
       </c>
       <c r="P123" s="5">
-        <f>(N123+O123)*0.5</f>
+        <f t="shared" si="34"/>
         <v>8</v>
       </c>
       <c r="Q123">
-        <f>D123+G123+J123+M123+P123</f>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="R123" s="6">
-        <f>Q123/Q$118</f>
+        <f t="shared" si="36"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="S123">
         <v>6</v>
       </c>
       <c r="T123" s="6">
-        <f>S123/S$118</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="U123">
         <v>5</v>
       </c>
       <c r="V123">
-        <f>U123/U$118</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="W123" s="6">
-        <f>R123/(T123+V123)</f>
+        <f t="shared" si="39"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -9174,25 +9174,25 @@
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1">
-        <f>(B124+C124)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2">
-        <f>(E124+F124)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3">
-        <f>(H124+I124)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
       <c r="M124" s="4">
-        <f>K124+L124</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N124" s="5">
@@ -9202,33 +9202,33 @@
         <v>8</v>
       </c>
       <c r="P124" s="5">
-        <f>(N124+O124)*0.5</f>
+        <f t="shared" si="34"/>
         <v>8</v>
       </c>
       <c r="Q124">
-        <f>D124+G124+J124+M124+P124</f>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="R124" s="6">
-        <f>Q124/Q$118</f>
+        <f t="shared" si="36"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="S124">
         <v>6</v>
       </c>
       <c r="T124" s="6">
-        <f>S124/S$118</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="U124">
         <v>5</v>
       </c>
       <c r="V124">
-        <f>U124/U$118</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="W124" s="6">
-        <f>R124/(T124+V124)</f>
+        <f t="shared" si="39"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -9239,25 +9239,25 @@
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1">
-        <f>(B125+C125)*1.5</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2">
-        <f>(E125+F125)*1.1</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3">
-        <f>(H125+I125)*1.2</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
       <c r="M125" s="4">
-        <f>K125+L125</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N125" s="5">
@@ -9267,33 +9267,33 @@
         <v>8</v>
       </c>
       <c r="P125" s="5">
-        <f>(N125+O125)*0.5</f>
+        <f t="shared" si="34"/>
         <v>8</v>
       </c>
       <c r="Q125">
-        <f>D125+G125+J125+M125+P125</f>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="R125" s="6">
-        <f>Q125/Q$118</f>
+        <f t="shared" si="36"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="S125">
         <v>6</v>
       </c>
       <c r="T125" s="6">
-        <f>S125/S$118</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="U125">
         <v>5</v>
       </c>
       <c r="V125">
-        <f>U125/U$118</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="W125" s="6">
-        <f>R125/(T125+V125)</f>
+        <f t="shared" si="39"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -9314,6 +9314,11 @@
     </sortState>
   </autoFilter>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="N1:P1"/>
@@ -9322,11 +9327,6 @@
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
